--- a/database/industries/ghaza/ghebshahr/product/monthly.xlsx
+++ b/database/industries/ghaza/ghebshahr/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="93">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3360,8 +3360,8 @@
       <c r="Z11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>57</v>
+      <c r="AA11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB11" s="13" t="n">
         <v>0</v>
@@ -3390,8 +3390,8 @@
       <c r="AJ11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK11" s="13" t="n">
-        <v>0</v>
+      <c r="AK11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL11" s="13" t="s">
         <v>57</v>
@@ -3549,59 +3549,59 @@
       <c r="AJ12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK12" s="16" t="s">
-        <v>57</v>
+      <c r="AK12" s="16" t="n">
+        <v>4289</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>4289</v>
+        <v>3467</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>3467</v>
+        <v>3768</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>3768</v>
+        <v>3574</v>
       </c>
       <c r="AO12" s="16" t="n">
         <v>3574</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>3574</v>
+        <v>1752</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1752</v>
+        <v>3561</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>3561</v>
+        <v>1987</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>1987</v>
+        <v>869</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>869</v>
+        <v>1454</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>1454</v>
+        <v>772</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>772</v>
+        <v>516</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>72</v>
+        <v>1169</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>1169</v>
+        <v>5728</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>5728</v>
+        <v>5555</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>2501</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,45 +3642,45 @@
       <c r="N13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>57</v>
+      <c r="O13" s="13" t="n">
+        <v>36025</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>36025</v>
+        <v>39773</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>39773</v>
+        <v>38340</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>38340</v>
+        <v>22302</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>22302</v>
+        <v>29129</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>29129</v>
+        <v>27148</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>27148</v>
+        <v>15466</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>15466</v>
+        <v>26542</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>26542</v>
+        <v>20324</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>20324</v>
+        <v>15646</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>15646</v>
+        <v>15799</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>15799</v>
-      </c>
-      <c r="AA13" s="13" t="n">
         <v>23277</v>
       </c>
+      <c r="AA13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB13" s="13" t="s">
         <v>57</v>
       </c>
@@ -3711,14 +3711,14 @@
       <c r="AK13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="13" t="s">
-        <v>57</v>
+      <c r="AL13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO13" s="13" t="n">
         <v>0</v>
@@ -3732,8 +3732,8 @@
       <c r="AR13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS13" s="13" t="n">
-        <v>0</v>
+      <c r="AS13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT13" s="13" t="s">
         <v>57</v>
@@ -3837,8 +3837,8 @@
       <c r="Z14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA14" s="16" t="s">
-        <v>57</v>
+      <c r="AA14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB14" s="16" t="n">
         <v>0</v>
@@ -3870,8 +3870,8 @@
       <c r="AK14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL14" s="16" t="n">
-        <v>0</v>
+      <c r="AL14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM14" s="16" t="s">
         <v>57</v>
@@ -3996,8 +3996,8 @@
       <c r="Z15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA15" s="13" t="s">
-        <v>57</v>
+      <c r="AA15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB15" s="13" t="n">
         <v>0</v>
@@ -4032,11 +4032,11 @@
       <c r="AL15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AM15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="13" t="s">
-        <v>57</v>
+      <c r="AM15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO15" s="13" t="n">
         <v>0</v>
@@ -4068,11 +4068,11 @@
       <c r="AX15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="13" t="s">
-        <v>57</v>
+      <c r="AY15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA15" s="13" t="n">
         <v>0</v>
@@ -4090,38 +4090,38 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>28481</v>
+        <v>24645</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>24645</v>
+        <v>35467</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>35467</v>
+        <v>24258</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>24258</v>
+        <v>32720</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>32720</v>
+        <v>40004</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>40004</v>
+        <v>39666</v>
       </c>
       <c r="K16" s="16" t="n">
-        <v>39666</v>
+        <v>38529</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>38529</v>
+        <v>36530</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>36530</v>
+        <v>38870</v>
       </c>
       <c r="N16" s="16" t="n">
-        <v>38870</v>
-      </c>
-      <c r="O16" s="16" t="n">
         <v>45082</v>
       </c>
+      <c r="O16" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P16" s="16" t="s">
         <v>57</v>
       </c>
@@ -4155,38 +4155,38 @@
       <c r="Z16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA16" s="16" t="s">
-        <v>57</v>
+      <c r="AA16" s="16" t="n">
+        <v>35613</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>37107</v>
-      </c>
-      <c r="AK16" s="16" t="n">
         <v>36577</v>
+      </c>
+      <c r="AK16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AL16" s="16" t="s">
         <v>57</v>
@@ -4344,59 +4344,59 @@
       <c r="AJ17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK17" s="13" t="s">
-        <v>57</v>
+      <c r="AK17" s="13" t="n">
+        <v>15555</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>15555</v>
+        <v>15038</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>15038</v>
+        <v>13094</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>13094</v>
+        <v>16018</v>
       </c>
       <c r="AO17" s="13" t="n">
         <v>16018</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>16018</v>
+        <v>8605</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>8605</v>
+        <v>8188</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>8188</v>
+        <v>15293</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>15293</v>
+        <v>16401</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>16401</v>
+        <v>8406</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>8406</v>
+        <v>12470</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>12470</v>
+        <v>11489</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>11489</v>
+        <v>11926</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>11926</v>
+        <v>11410</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>11410</v>
+        <v>12424</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>12424</v>
+        <v>14241</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>14241</v>
+        <v>15425</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>15406</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,59 +4503,59 @@
       <c r="AJ18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK18" s="16" t="s">
-        <v>57</v>
+      <c r="AK18" s="16" t="n">
+        <v>11852</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>11852</v>
+        <v>9202</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>9202</v>
+        <v>13097</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>13097</v>
+        <v>14878</v>
       </c>
       <c r="AO18" s="16" t="n">
         <v>14878</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>14878</v>
+        <v>7513</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>7513</v>
+        <v>10530</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>10530</v>
+        <v>6426</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>6426</v>
+        <v>13291</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>13291</v>
+        <v>7330</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>7330</v>
+        <v>8752</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>8752</v>
+        <v>8117</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>8117</v>
+        <v>8725</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>8725</v>
+        <v>7420</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>7420</v>
+        <v>11241</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>11241</v>
+        <v>9541</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>9541</v>
+        <v>13641</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>13642</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,59 +4662,59 @@
       <c r="AJ19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" s="13" t="s">
-        <v>57</v>
+      <c r="AK19" s="13" t="n">
+        <v>2407</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>2407</v>
+        <v>3861</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>3861</v>
+        <v>4573</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>4573</v>
+        <v>4358</v>
       </c>
       <c r="AO19" s="13" t="n">
         <v>4358</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>4358</v>
+        <v>4163</v>
       </c>
       <c r="AQ19" s="13" t="n">
-        <v>4163</v>
+        <v>1906</v>
       </c>
       <c r="AR19" s="13" t="n">
-        <v>1906</v>
+        <v>4930</v>
       </c>
       <c r="AS19" s="13" t="n">
-        <v>4930</v>
+        <v>7312</v>
       </c>
       <c r="AT19" s="13" t="n">
-        <v>7312</v>
+        <v>3900</v>
       </c>
       <c r="AU19" s="13" t="n">
-        <v>3900</v>
+        <v>6029</v>
       </c>
       <c r="AV19" s="13" t="n">
-        <v>6029</v>
+        <v>5956</v>
       </c>
       <c r="AW19" s="13" t="n">
-        <v>5956</v>
+        <v>5770</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>5770</v>
+        <v>7382</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>7382</v>
+        <v>6499</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>6499</v>
+        <v>6964</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>6964</v>
+        <v>7817</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>7817</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,59 +4821,59 @@
       <c r="AJ20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK20" s="16" t="s">
-        <v>57</v>
+      <c r="AK20" s="16" t="n">
+        <v>999</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>999</v>
+        <v>1110</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>1110</v>
+        <v>2017</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>2017</v>
+        <v>1862</v>
       </c>
       <c r="AO20" s="16" t="n">
         <v>1862</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>1862</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>219</v>
+        <v>2676</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>2676</v>
+        <v>2374</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>2374</v>
+        <v>2808</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>2808</v>
+        <v>881</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>881</v>
+        <v>605</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>605</v>
+        <v>1937</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>1937</v>
+        <v>1047</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>1047</v>
+        <v>1646</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>1646</v>
+        <v>2014</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>2014</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,26 +4980,26 @@
       <c r="AJ21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK21" s="13" t="s">
-        <v>57</v>
+      <c r="AK21" s="13" t="n">
+        <v>975</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>975</v>
+        <v>454</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>454</v>
+        <v>183</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AO21" s="13" t="n">
         <v>169</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>169</v>
-      </c>
-      <c r="AQ21" s="13" t="n">
         <v>35</v>
+      </c>
+      <c r="AQ21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR21" s="13" t="s">
         <v>57</v>
@@ -5139,59 +5139,59 @@
       <c r="AJ22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK22" s="16" t="s">
-        <v>57</v>
+      <c r="AK22" s="16" t="n">
+        <v>88</v>
       </c>
       <c r="AL22" s="16" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AM22" s="16" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AN22" s="16" t="n">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AO22" s="16" t="n">
         <v>221</v>
       </c>
       <c r="AP22" s="16" t="n">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="AQ22" s="16" t="n">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="AU22" s="16" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="AV22" s="16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="16" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="BA22" s="16" t="n">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>207</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,17 +5298,17 @@
       <c r="AJ23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL23" s="13" t="n">
+      <c r="AK23" s="13" t="n">
         <v>885</v>
       </c>
-      <c r="AM23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN23" s="13" t="n">
+      <c r="AL23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM23" s="13" t="n">
         <v>616</v>
+      </c>
+      <c r="AN23" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO23" s="13" t="s">
         <v>57</v>
@@ -5475,35 +5475,35 @@
       <c r="AP24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ24" s="16" t="s">
-        <v>57</v>
+      <c r="AQ24" s="16" t="n">
+        <v>5</v>
       </c>
       <c r="AR24" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="16" t="n">
         <v>5</v>
-      </c>
-      <c r="AS24" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AT24" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AU24" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW24" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX24" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY24" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="16" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA24" s="16" t="n">
         <v>0</v>
@@ -5634,41 +5634,41 @@
       <c r="AP25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ25" s="13" t="s">
-        <v>57</v>
+      <c r="AQ25" s="13" t="n">
+        <v>56</v>
       </c>
       <c r="AR25" s="13" t="n">
         <v>56</v>
       </c>
       <c r="AS25" s="13" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AY25" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="AZ25" s="13" t="n">
-        <v>34</v>
-      </c>
       <c r="BA25" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,8 +5799,8 @@
       <c r="AR26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AS26" s="16" t="s">
-        <v>57</v>
+      <c r="AS26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT26" s="16" t="n">
         <v>0</v>
@@ -5814,8 +5814,8 @@
       <c r="AW26" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX26" s="16" t="n">
-        <v>0</v>
+      <c r="AX26" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY26" s="16" t="s">
         <v>57</v>
@@ -5823,8 +5823,8 @@
       <c r="AZ26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA26" s="16" t="s">
-        <v>57</v>
+      <c r="BA26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BB26" s="16" t="n">
         <v>0</v>
@@ -5952,41 +5952,41 @@
       <c r="AP27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ27" s="13" t="s">
+      <c r="AQ27" s="13" t="n">
         <v>57</v>
       </c>
       <c r="AR27" s="13" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT27" s="13" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AU27" s="13" t="n">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AV27" s="13" t="n">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AW27" s="13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AX27" s="13" t="n">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="AY27" s="13" t="n">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="AZ27" s="13" t="n">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="BA27" s="13" t="n">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="BB27" s="13" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,8 +6111,8 @@
       <c r="AP28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ28" s="16" t="s">
-        <v>57</v>
+      <c r="AQ28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR28" s="16" t="n">
         <v>0</v>
@@ -6135,11 +6135,11 @@
       <c r="AX28" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY28" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="16" t="s">
-        <v>57</v>
+      <c r="AY28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA28" s="16" t="n">
         <v>0</v>
@@ -6273,8 +6273,8 @@
       <c r="AQ29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>57</v>
+      <c r="AR29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS29" s="13" t="n">
         <v>0</v>
@@ -6294,8 +6294,8 @@
       <c r="AX29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY29" s="13" t="n">
-        <v>0</v>
+      <c r="AY29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ29" s="13" t="s">
         <v>57</v>
@@ -6595,8 +6595,8 @@
       <c r="Z32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="18" t="s">
-        <v>57</v>
+      <c r="AA32" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB32" s="18" t="n">
         <v>0</v>
@@ -6687,154 +6687,154 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20" t="n">
-        <v>28481</v>
+        <v>24645</v>
       </c>
       <c r="F33" s="20" t="n">
-        <v>24645</v>
+        <v>35467</v>
       </c>
       <c r="G33" s="20" t="n">
-        <v>35467</v>
+        <v>24258</v>
       </c>
       <c r="H33" s="20" t="n">
-        <v>24258</v>
+        <v>32720</v>
       </c>
       <c r="I33" s="20" t="n">
-        <v>32720</v>
+        <v>40004</v>
       </c>
       <c r="J33" s="20" t="n">
-        <v>40004</v>
+        <v>39666</v>
       </c>
       <c r="K33" s="20" t="n">
-        <v>39666</v>
+        <v>38529</v>
       </c>
       <c r="L33" s="20" t="n">
-        <v>38529</v>
+        <v>36530</v>
       </c>
       <c r="M33" s="20" t="n">
-        <v>36530</v>
+        <v>38870</v>
       </c>
       <c r="N33" s="20" t="n">
-        <v>38870</v>
+        <v>45082</v>
       </c>
       <c r="O33" s="20" t="n">
-        <v>45082</v>
+        <v>36025</v>
       </c>
       <c r="P33" s="20" t="n">
-        <v>36025</v>
+        <v>39773</v>
       </c>
       <c r="Q33" s="20" t="n">
-        <v>39773</v>
+        <v>38340</v>
       </c>
       <c r="R33" s="20" t="n">
-        <v>38340</v>
+        <v>22302</v>
       </c>
       <c r="S33" s="20" t="n">
-        <v>22302</v>
+        <v>29129</v>
       </c>
       <c r="T33" s="20" t="n">
-        <v>29129</v>
+        <v>27148</v>
       </c>
       <c r="U33" s="20" t="n">
-        <v>27148</v>
+        <v>15466</v>
       </c>
       <c r="V33" s="20" t="n">
-        <v>15466</v>
+        <v>26542</v>
       </c>
       <c r="W33" s="20" t="n">
-        <v>26542</v>
+        <v>20324</v>
       </c>
       <c r="X33" s="20" t="n">
-        <v>20324</v>
+        <v>15646</v>
       </c>
       <c r="Y33" s="20" t="n">
-        <v>15646</v>
+        <v>15799</v>
       </c>
       <c r="Z33" s="20" t="n">
-        <v>15799</v>
+        <v>23277</v>
       </c>
       <c r="AA33" s="20" t="n">
-        <v>23277</v>
+        <v>35613</v>
       </c>
       <c r="AB33" s="20" t="n">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AC33" s="20" t="n">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AD33" s="20" t="n">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AE33" s="20" t="n">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AF33" s="20" t="n">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AG33" s="20" t="n">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AH33" s="20" t="n">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AI33" s="20" t="n">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AJ33" s="20" t="n">
-        <v>37107</v>
+        <v>36577</v>
       </c>
       <c r="AK33" s="20" t="n">
-        <v>36577</v>
+        <v>37050</v>
       </c>
       <c r="AL33" s="20" t="n">
-        <v>37050</v>
+        <v>33224</v>
       </c>
       <c r="AM33" s="20" t="n">
-        <v>33224</v>
+        <v>37423</v>
       </c>
       <c r="AN33" s="20" t="n">
-        <v>37423</v>
+        <v>41080</v>
       </c>
       <c r="AO33" s="20" t="n">
         <v>41080</v>
       </c>
       <c r="AP33" s="20" t="n">
-        <v>41080</v>
+        <v>22181</v>
       </c>
       <c r="AQ33" s="20" t="n">
-        <v>22181</v>
+        <v>24496</v>
       </c>
       <c r="AR33" s="20" t="n">
-        <v>24496</v>
+        <v>29180</v>
       </c>
       <c r="AS33" s="20" t="n">
-        <v>29180</v>
+        <v>40876</v>
       </c>
       <c r="AT33" s="20" t="n">
-        <v>40876</v>
+        <v>24069</v>
       </c>
       <c r="AU33" s="20" t="n">
-        <v>24069</v>
+        <v>31237</v>
       </c>
       <c r="AV33" s="20" t="n">
-        <v>31237</v>
+        <v>27241</v>
       </c>
       <c r="AW33" s="20" t="n">
-        <v>27241</v>
+        <v>27313</v>
       </c>
       <c r="AX33" s="20" t="n">
-        <v>27313</v>
+        <v>28702</v>
       </c>
       <c r="AY33" s="20" t="n">
-        <v>28702</v>
+        <v>32457</v>
       </c>
       <c r="AZ33" s="20" t="n">
-        <v>32457</v>
+        <v>38428</v>
       </c>
       <c r="BA33" s="20" t="n">
-        <v>38428</v>
+        <v>44771</v>
       </c>
       <c r="BB33" s="20" t="n">
-        <v>41629</v>
+        <v>27536</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,8 +7345,8 @@
       <c r="Z40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA40" s="13" t="s">
-        <v>57</v>
+      <c r="AA40" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB40" s="13" t="n">
         <v>0</v>
@@ -7375,8 +7375,8 @@
       <c r="AJ40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK40" s="13" t="n">
-        <v>0</v>
+      <c r="AK40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL40" s="13" t="s">
         <v>57</v>
@@ -7534,59 +7534,59 @@
       <c r="AJ41" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="16" t="s">
-        <v>57</v>
+      <c r="AK41" s="16" t="n">
+        <v>3503</v>
       </c>
       <c r="AL41" s="16" t="n">
-        <v>3503</v>
+        <v>3498</v>
       </c>
       <c r="AM41" s="16" t="n">
-        <v>3498</v>
+        <v>4382</v>
       </c>
       <c r="AN41" s="16" t="n">
-        <v>4382</v>
+        <v>3904</v>
       </c>
       <c r="AO41" s="16" t="n">
         <v>3904</v>
       </c>
       <c r="AP41" s="16" t="n">
-        <v>3904</v>
+        <v>1164</v>
       </c>
       <c r="AQ41" s="16" t="n">
-        <v>1164</v>
+        <v>3511</v>
       </c>
       <c r="AR41" s="16" t="n">
-        <v>3511</v>
+        <v>2528</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>2528</v>
+        <v>893</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>893</v>
+        <v>1566</v>
       </c>
       <c r="AU41" s="16" t="n">
-        <v>1566</v>
+        <v>917</v>
       </c>
       <c r="AV41" s="16" t="n">
-        <v>917</v>
+        <v>479</v>
       </c>
       <c r="AW41" s="16" t="n">
-        <v>479</v>
+        <v>61</v>
       </c>
       <c r="AX41" s="16" t="n">
-        <v>61</v>
+        <v>-26</v>
       </c>
       <c r="AY41" s="16" t="n">
-        <v>-26</v>
+        <v>812</v>
       </c>
       <c r="AZ41" s="16" t="n">
-        <v>812</v>
+        <v>5918</v>
       </c>
       <c r="BA41" s="16" t="n">
-        <v>5918</v>
+        <v>5446</v>
       </c>
       <c r="BB41" s="16" t="n">
-        <v>5446</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7627,45 +7627,45 @@
       <c r="N42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O42" s="13" t="s">
-        <v>57</v>
+      <c r="O42" s="13" t="n">
+        <v>35538</v>
       </c>
       <c r="P42" s="13" t="n">
-        <v>35538</v>
+        <v>39096</v>
       </c>
       <c r="Q42" s="13" t="n">
-        <v>39096</v>
+        <v>42949</v>
       </c>
       <c r="R42" s="13" t="n">
-        <v>42949</v>
+        <v>20862</v>
       </c>
       <c r="S42" s="13" t="n">
-        <v>20862</v>
+        <v>30558</v>
       </c>
       <c r="T42" s="13" t="n">
-        <v>30558</v>
+        <v>27093</v>
       </c>
       <c r="U42" s="13" t="n">
-        <v>27093</v>
+        <v>14772</v>
       </c>
       <c r="V42" s="13" t="n">
-        <v>14772</v>
+        <v>26331</v>
       </c>
       <c r="W42" s="13" t="n">
-        <v>26331</v>
+        <v>21657</v>
       </c>
       <c r="X42" s="13" t="n">
-        <v>21657</v>
+        <v>15214</v>
       </c>
       <c r="Y42" s="13" t="n">
-        <v>15214</v>
+        <v>14607</v>
       </c>
       <c r="Z42" s="13" t="n">
-        <v>14607</v>
-      </c>
-      <c r="AA42" s="13" t="n">
         <v>22426</v>
       </c>
+      <c r="AA42" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB42" s="13" t="s">
         <v>57</v>
       </c>
@@ -7696,14 +7696,14 @@
       <c r="AK42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" s="13" t="s">
-        <v>57</v>
+      <c r="AL42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO42" s="13" t="n">
         <v>0</v>
@@ -7717,8 +7717,8 @@
       <c r="AR42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS42" s="13" t="n">
-        <v>0</v>
+      <c r="AS42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>57</v>
@@ -7822,8 +7822,8 @@
       <c r="Z43" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA43" s="16" t="s">
-        <v>57</v>
+      <c r="AA43" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB43" s="16" t="n">
         <v>0</v>
@@ -7855,8 +7855,8 @@
       <c r="AK43" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" s="16" t="n">
-        <v>0</v>
+      <c r="AL43" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM43" s="16" t="s">
         <v>57</v>
@@ -7981,23 +7981,23 @@
       <c r="Z44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA44" s="13" t="s">
-        <v>57</v>
+      <c r="AA44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>0</v>
+        <v>7125</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>7125</v>
+        <v>1217</v>
       </c>
       <c r="AD44" s="13" t="n">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="13" t="n">
-        <v>0</v>
+        <v>3814</v>
       </c>
       <c r="AF44" s="13" t="n">
-        <v>3814</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="13" t="n">
         <v>0</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" s="13" t="n">
         <v>1440</v>
       </c>
-      <c r="AN44" s="13" t="s">
-        <v>57</v>
+      <c r="AM44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO44" s="13" t="n">
         <v>0</v>
@@ -8030,13 +8030,13 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="13" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR44" s="13" t="n">
-        <v>-10</v>
+        <v>4842</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>4842</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="13" t="n">
         <v>0</v>
@@ -8053,11 +8053,11 @@
       <c r="AX44" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY44" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="13" t="s">
-        <v>57</v>
+      <c r="AY44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ44" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA44" s="13" t="n">
         <v>0</v>
@@ -8075,38 +8075,38 @@
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="16" t="n">
-        <v>27738</v>
+        <v>27499</v>
       </c>
       <c r="F45" s="16" t="n">
-        <v>27499</v>
+        <v>33434</v>
       </c>
       <c r="G45" s="16" t="n">
-        <v>33434</v>
+        <v>23787</v>
       </c>
       <c r="H45" s="16" t="n">
-        <v>23787</v>
+        <v>31442</v>
       </c>
       <c r="I45" s="16" t="n">
-        <v>31442</v>
+        <v>38867</v>
       </c>
       <c r="J45" s="16" t="n">
-        <v>38867</v>
+        <v>38679</v>
       </c>
       <c r="K45" s="16" t="n">
-        <v>38679</v>
+        <v>38077</v>
       </c>
       <c r="L45" s="16" t="n">
-        <v>38077</v>
+        <v>37129</v>
       </c>
       <c r="M45" s="16" t="n">
-        <v>37129</v>
+        <v>37643</v>
       </c>
       <c r="N45" s="16" t="n">
-        <v>37643</v>
-      </c>
-      <c r="O45" s="16" t="n">
         <v>46159</v>
       </c>
+      <c r="O45" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P45" s="16" t="s">
         <v>57</v>
       </c>
@@ -8140,38 +8140,38 @@
       <c r="Z45" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA45" s="16" t="s">
-        <v>57</v>
+      <c r="AA45" s="16" t="n">
+        <v>35582</v>
       </c>
       <c r="AB45" s="16" t="n">
-        <v>35582</v>
+        <v>35808</v>
       </c>
       <c r="AC45" s="16" t="n">
-        <v>35808</v>
+        <v>40442</v>
       </c>
       <c r="AD45" s="16" t="n">
-        <v>40442</v>
+        <v>34098</v>
       </c>
       <c r="AE45" s="16" t="n">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AF45" s="16" t="n">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AG45" s="16" t="n">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AH45" s="16" t="n">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AI45" s="16" t="n">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AJ45" s="16" t="n">
-        <v>38172</v>
-      </c>
-      <c r="AK45" s="16" t="n">
         <v>35675</v>
+      </c>
+      <c r="AK45" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AL45" s="16" t="s">
         <v>57</v>
@@ -8329,59 +8329,59 @@
       <c r="AJ46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK46" s="13" t="s">
-        <v>57</v>
+      <c r="AK46" s="13" t="n">
+        <v>14054</v>
       </c>
       <c r="AL46" s="13" t="n">
-        <v>14054</v>
+        <v>13250</v>
       </c>
       <c r="AM46" s="13" t="n">
-        <v>13250</v>
+        <v>15306</v>
       </c>
       <c r="AN46" s="13" t="n">
-        <v>15306</v>
+        <v>15588</v>
       </c>
       <c r="AO46" s="13" t="n">
         <v>15588</v>
       </c>
       <c r="AP46" s="13" t="n">
-        <v>15588</v>
+        <v>8156</v>
       </c>
       <c r="AQ46" s="13" t="n">
-        <v>8156</v>
+        <v>7977</v>
       </c>
       <c r="AR46" s="13" t="n">
-        <v>7977</v>
+        <v>14780</v>
       </c>
       <c r="AS46" s="13" t="n">
-        <v>14780</v>
+        <v>17009</v>
       </c>
       <c r="AT46" s="13" t="n">
-        <v>17009</v>
+        <v>8622</v>
       </c>
       <c r="AU46" s="13" t="n">
-        <v>8622</v>
+        <v>11765</v>
       </c>
       <c r="AV46" s="13" t="n">
-        <v>11765</v>
+        <v>11860</v>
       </c>
       <c r="AW46" s="13" t="n">
-        <v>11860</v>
+        <v>12392</v>
       </c>
       <c r="AX46" s="13" t="n">
-        <v>12392</v>
+        <v>11711</v>
       </c>
       <c r="AY46" s="13" t="n">
-        <v>11711</v>
+        <v>12482</v>
       </c>
       <c r="AZ46" s="13" t="n">
-        <v>12482</v>
+        <v>12883</v>
       </c>
       <c r="BA46" s="13" t="n">
-        <v>12883</v>
+        <v>15123</v>
       </c>
       <c r="BB46" s="13" t="n">
-        <v>15123</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8488,59 +8488,59 @@
       <c r="AJ47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK47" s="16" t="s">
-        <v>57</v>
+      <c r="AK47" s="16" t="n">
+        <v>11836</v>
       </c>
       <c r="AL47" s="16" t="n">
-        <v>11836</v>
+        <v>8307</v>
       </c>
       <c r="AM47" s="16" t="n">
-        <v>8307</v>
+        <v>13787</v>
       </c>
       <c r="AN47" s="16" t="n">
-        <v>13787</v>
+        <v>14665</v>
       </c>
       <c r="AO47" s="16" t="n">
         <v>14665</v>
       </c>
       <c r="AP47" s="16" t="n">
-        <v>14665</v>
+        <v>7533</v>
       </c>
       <c r="AQ47" s="16" t="n">
-        <v>7533</v>
+        <v>10235</v>
       </c>
       <c r="AR47" s="16" t="n">
-        <v>10235</v>
+        <v>6683</v>
       </c>
       <c r="AS47" s="16" t="n">
-        <v>6683</v>
+        <v>13633</v>
       </c>
       <c r="AT47" s="16" t="n">
-        <v>13633</v>
+        <v>6856</v>
       </c>
       <c r="AU47" s="16" t="n">
-        <v>6856</v>
+        <v>8501</v>
       </c>
       <c r="AV47" s="16" t="n">
-        <v>8501</v>
+        <v>8564</v>
       </c>
       <c r="AW47" s="16" t="n">
-        <v>8564</v>
+        <v>8804</v>
       </c>
       <c r="AX47" s="16" t="n">
-        <v>8804</v>
+        <v>7523</v>
       </c>
       <c r="AY47" s="16" t="n">
-        <v>7523</v>
+        <v>11394</v>
       </c>
       <c r="AZ47" s="16" t="n">
-        <v>11394</v>
+        <v>9012</v>
       </c>
       <c r="BA47" s="16" t="n">
-        <v>9012</v>
+        <v>13413</v>
       </c>
       <c r="BB47" s="16" t="n">
-        <v>13413</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8647,59 +8647,59 @@
       <c r="AJ48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK48" s="13" t="s">
-        <v>57</v>
+      <c r="AK48" s="13" t="n">
+        <v>4475</v>
       </c>
       <c r="AL48" s="13" t="n">
-        <v>4475</v>
+        <v>3738</v>
       </c>
       <c r="AM48" s="13" t="n">
-        <v>3738</v>
+        <v>4477</v>
       </c>
       <c r="AN48" s="13" t="n">
-        <v>4477</v>
+        <v>4282</v>
       </c>
       <c r="AO48" s="13" t="n">
         <v>4282</v>
       </c>
       <c r="AP48" s="13" t="n">
-        <v>4282</v>
+        <v>3633</v>
       </c>
       <c r="AQ48" s="13" t="n">
-        <v>3633</v>
+        <v>1823</v>
       </c>
       <c r="AR48" s="13" t="n">
-        <v>1823</v>
+        <v>4542</v>
       </c>
       <c r="AS48" s="13" t="n">
-        <v>4542</v>
+        <v>6752</v>
       </c>
       <c r="AT48" s="13" t="n">
-        <v>6752</v>
+        <v>3348</v>
       </c>
       <c r="AU48" s="13" t="n">
-        <v>3348</v>
+        <v>5615</v>
       </c>
       <c r="AV48" s="13" t="n">
-        <v>5615</v>
+        <v>5701</v>
       </c>
       <c r="AW48" s="13" t="n">
-        <v>5701</v>
+        <v>6331</v>
       </c>
       <c r="AX48" s="13" t="n">
-        <v>6331</v>
+        <v>6936</v>
       </c>
       <c r="AY48" s="13" t="n">
-        <v>6936</v>
+        <v>6259</v>
       </c>
       <c r="AZ48" s="13" t="n">
-        <v>6259</v>
+        <v>7135</v>
       </c>
       <c r="BA48" s="13" t="n">
-        <v>7135</v>
+        <v>8091</v>
       </c>
       <c r="BB48" s="13" t="n">
-        <v>8091</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8806,59 +8806,59 @@
       <c r="AJ49" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK49" s="16" t="s">
-        <v>57</v>
+      <c r="AK49" s="16" t="n">
+        <v>1023</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>1023</v>
+        <v>1079</v>
       </c>
       <c r="AM49" s="16" t="n">
-        <v>1079</v>
+        <v>2031</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>2031</v>
+        <v>1822</v>
       </c>
       <c r="AO49" s="16" t="n">
         <v>1822</v>
       </c>
       <c r="AP49" s="16" t="n">
-        <v>1822</v>
+        <v>33</v>
       </c>
       <c r="AQ49" s="16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>217</v>
+        <v>2438</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>2438</v>
+        <v>2301</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>2301</v>
+        <v>2803</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>2803</v>
+        <v>1099</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>1099</v>
+        <v>622</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>622</v>
+        <v>1956</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>1956</v>
+        <v>1034</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>1034</v>
+        <v>1583</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>1583</v>
+        <v>1933</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>1933</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8965,26 +8965,26 @@
       <c r="AJ50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK50" s="13" t="s">
-        <v>57</v>
+      <c r="AK50" s="13" t="n">
+        <v>549</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AO50" s="13" t="n">
         <v>172</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>172</v>
-      </c>
-      <c r="AQ50" s="13" t="n">
         <v>41</v>
+      </c>
+      <c r="AQ50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR50" s="13" t="s">
         <v>57</v>
@@ -9124,59 +9124,59 @@
       <c r="AJ51" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK51" s="16" t="s">
-        <v>57</v>
+      <c r="AK51" s="16" t="n">
+        <v>93</v>
       </c>
       <c r="AL51" s="16" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AM51" s="16" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AN51" s="16" t="n">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AO51" s="16" t="n">
         <v>170</v>
       </c>
       <c r="AP51" s="16" t="n">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AQ51" s="16" t="n">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="AR51" s="16" t="n">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AS51" s="16" t="n">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AT51" s="16" t="n">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="AU51" s="16" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV51" s="16" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>212</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9283,17 +9283,17 @@
       <c r="AJ52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52" s="13" t="n">
+      <c r="AK52" s="13" t="n">
         <v>853</v>
       </c>
-      <c r="AM52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN52" s="13" t="n">
+      <c r="AL52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM52" s="13" t="n">
         <v>653</v>
+      </c>
+      <c r="AN52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO52" s="13" t="s">
         <v>57</v>
@@ -9460,35 +9460,35 @@
       <c r="AP53" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ53" s="16" t="s">
-        <v>57</v>
+      <c r="AQ53" s="16" t="n">
+        <v>5</v>
       </c>
       <c r="AR53" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="16" t="n">
         <v>5</v>
-      </c>
-      <c r="AS53" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AT53" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY53" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="16" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AY53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ53" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA53" s="16" t="n">
         <v>0</v>
@@ -9619,41 +9619,41 @@
       <c r="AP54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>57</v>
+      <c r="AQ54" s="13" t="n">
+        <v>56</v>
       </c>
       <c r="AR54" s="13" t="n">
         <v>56</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AY54" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ54" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="AZ54" s="13" t="n">
-        <v>34</v>
-      </c>
       <c r="BA54" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9784,8 +9784,8 @@
       <c r="AR55" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AS55" s="16" t="s">
-        <v>57</v>
+      <c r="AS55" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT55" s="16" t="n">
         <v>0</v>
@@ -9799,8 +9799,8 @@
       <c r="AW55" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX55" s="16" t="n">
-        <v>0</v>
+      <c r="AX55" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY55" s="16" t="s">
         <v>57</v>
@@ -9808,8 +9808,8 @@
       <c r="AZ55" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA55" s="16" t="s">
-        <v>57</v>
+      <c r="BA55" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BB55" s="16" t="n">
         <v>0</v>
@@ -9937,41 +9937,41 @@
       <c r="AP56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ56" s="13" t="s">
+      <c r="AQ56" s="13" t="n">
         <v>57</v>
       </c>
       <c r="AR56" s="13" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AV56" s="13" t="n">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AY56" s="13" t="n">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="AZ56" s="13" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="BA56" s="13" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="BB56" s="13" t="n">
-        <v>42</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10096,8 +10096,8 @@
       <c r="AP57" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ57" s="16" t="s">
-        <v>57</v>
+      <c r="AQ57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR57" s="16" t="n">
         <v>0</v>
@@ -10120,11 +10120,11 @@
       <c r="AX57" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY57" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" s="16" t="s">
-        <v>57</v>
+      <c r="AY57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA57" s="16" t="n">
         <v>0</v>
@@ -10258,8 +10258,8 @@
       <c r="AQ58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR58" s="13" t="s">
-        <v>57</v>
+      <c r="AR58" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS58" s="13" t="n">
         <v>0</v>
@@ -10279,8 +10279,8 @@
       <c r="AX58" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY58" s="13" t="n">
-        <v>0</v>
+      <c r="AY58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ58" s="13" t="s">
         <v>57</v>
@@ -10462,14 +10462,14 @@
       <c r="AM60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN60" s="13" t="s">
-        <v>57</v>
+      <c r="AN60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO60" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP60" s="13" t="n">
-        <v>0</v>
+      <c r="AP60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ60" s="13" t="s">
         <v>57</v>
@@ -10580,8 +10580,8 @@
       <c r="Z61" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AA61" s="18" t="s">
-        <v>57</v>
+      <c r="AA61" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB61" s="18" t="n">
         <v>0</v>
@@ -10794,8 +10794,8 @@
       <c r="Z63" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA63" s="20" t="s">
-        <v>57</v>
+      <c r="AA63" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB63" s="20" t="n">
         <v>0</v>
@@ -10886,154 +10886,154 @@
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18" t="n">
-        <v>27738</v>
+        <v>27499</v>
       </c>
       <c r="F64" s="18" t="n">
-        <v>27499</v>
+        <v>33434</v>
       </c>
       <c r="G64" s="18" t="n">
-        <v>33434</v>
+        <v>23787</v>
       </c>
       <c r="H64" s="18" t="n">
-        <v>23787</v>
+        <v>31442</v>
       </c>
       <c r="I64" s="18" t="n">
-        <v>31442</v>
+        <v>38867</v>
       </c>
       <c r="J64" s="18" t="n">
-        <v>38867</v>
+        <v>38679</v>
       </c>
       <c r="K64" s="18" t="n">
-        <v>38679</v>
+        <v>38077</v>
       </c>
       <c r="L64" s="18" t="n">
-        <v>38077</v>
+        <v>37129</v>
       </c>
       <c r="M64" s="18" t="n">
-        <v>37129</v>
+        <v>37643</v>
       </c>
       <c r="N64" s="18" t="n">
-        <v>37643</v>
+        <v>46159</v>
       </c>
       <c r="O64" s="18" t="n">
-        <v>46159</v>
+        <v>35538</v>
       </c>
       <c r="P64" s="18" t="n">
-        <v>35538</v>
+        <v>39096</v>
       </c>
       <c r="Q64" s="18" t="n">
-        <v>39096</v>
+        <v>42949</v>
       </c>
       <c r="R64" s="18" t="n">
-        <v>42949</v>
+        <v>20862</v>
       </c>
       <c r="S64" s="18" t="n">
-        <v>20862</v>
+        <v>30558</v>
       </c>
       <c r="T64" s="18" t="n">
-        <v>30558</v>
+        <v>27093</v>
       </c>
       <c r="U64" s="18" t="n">
-        <v>27093</v>
+        <v>14772</v>
       </c>
       <c r="V64" s="18" t="n">
-        <v>14772</v>
+        <v>26331</v>
       </c>
       <c r="W64" s="18" t="n">
-        <v>26331</v>
+        <v>21657</v>
       </c>
       <c r="X64" s="18" t="n">
-        <v>21657</v>
+        <v>15214</v>
       </c>
       <c r="Y64" s="18" t="n">
-        <v>15214</v>
+        <v>14607</v>
       </c>
       <c r="Z64" s="18" t="n">
-        <v>14607</v>
+        <v>22426</v>
       </c>
       <c r="AA64" s="18" t="n">
-        <v>22426</v>
+        <v>35582</v>
       </c>
       <c r="AB64" s="18" t="n">
-        <v>35582</v>
+        <v>42933</v>
       </c>
       <c r="AC64" s="18" t="n">
-        <v>42933</v>
+        <v>41659</v>
       </c>
       <c r="AD64" s="18" t="n">
-        <v>41659</v>
+        <v>34098</v>
       </c>
       <c r="AE64" s="18" t="n">
-        <v>34098</v>
+        <v>41400</v>
       </c>
       <c r="AF64" s="18" t="n">
-        <v>41400</v>
+        <v>42505</v>
       </c>
       <c r="AG64" s="18" t="n">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AH64" s="18" t="n">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AI64" s="18" t="n">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AJ64" s="18" t="n">
-        <v>38172</v>
+        <v>35675</v>
       </c>
       <c r="AK64" s="18" t="n">
-        <v>35675</v>
+        <v>36386</v>
       </c>
       <c r="AL64" s="18" t="n">
-        <v>36386</v>
+        <v>31876</v>
       </c>
       <c r="AM64" s="18" t="n">
-        <v>31876</v>
+        <v>40902</v>
       </c>
       <c r="AN64" s="18" t="n">
-        <v>40902</v>
+        <v>40603</v>
       </c>
       <c r="AO64" s="18" t="n">
         <v>40603</v>
       </c>
       <c r="AP64" s="18" t="n">
-        <v>40603</v>
+        <v>20703</v>
       </c>
       <c r="AQ64" s="18" t="n">
-        <v>20703</v>
+        <v>23906</v>
       </c>
       <c r="AR64" s="18" t="n">
-        <v>23906</v>
+        <v>33880</v>
       </c>
       <c r="AS64" s="18" t="n">
-        <v>33880</v>
+        <v>40982</v>
       </c>
       <c r="AT64" s="18" t="n">
-        <v>40982</v>
+        <v>23377</v>
       </c>
       <c r="AU64" s="18" t="n">
-        <v>23377</v>
+        <v>30014</v>
       </c>
       <c r="AV64" s="18" t="n">
-        <v>30014</v>
+        <v>28020</v>
       </c>
       <c r="AW64" s="18" t="n">
-        <v>28020</v>
+        <v>28500</v>
       </c>
       <c r="AX64" s="18" t="n">
-        <v>28500</v>
+        <v>28517</v>
       </c>
       <c r="AY64" s="18" t="n">
-        <v>28517</v>
+        <v>32178</v>
       </c>
       <c r="AZ64" s="18" t="n">
-        <v>32178</v>
+        <v>36784</v>
       </c>
       <c r="BA64" s="18" t="n">
-        <v>36784</v>
+        <v>44260</v>
       </c>
       <c r="BB64" s="18" t="n">
-        <v>44260</v>
+        <v>27099</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11544,11 +11544,11 @@
       <c r="Z71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA71" s="13" t="s">
-        <v>57</v>
+      <c r="AA71" s="13" t="n">
+        <v>8</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="13" t="n">
         <v>0</v>
@@ -11574,8 +11574,8 @@
       <c r="AJ71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK71" s="13" t="n">
-        <v>0</v>
+      <c r="AK71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL71" s="13" t="s">
         <v>57</v>
@@ -11733,59 +11733,59 @@
       <c r="AJ72" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK72" s="16" t="s">
-        <v>57</v>
+      <c r="AK72" s="16" t="n">
+        <v>184112</v>
       </c>
       <c r="AL72" s="16" t="n">
-        <v>184112</v>
+        <v>100888</v>
       </c>
       <c r="AM72" s="16" t="n">
-        <v>100888</v>
+        <v>169113</v>
       </c>
       <c r="AN72" s="16" t="n">
-        <v>169113</v>
+        <v>141870</v>
       </c>
       <c r="AO72" s="16" t="n">
         <v>141870</v>
       </c>
       <c r="AP72" s="16" t="n">
-        <v>141870</v>
+        <v>29874</v>
       </c>
       <c r="AQ72" s="16" t="n">
-        <v>29874</v>
+        <v>135144</v>
       </c>
       <c r="AR72" s="16" t="n">
-        <v>135144</v>
+        <v>97532</v>
       </c>
       <c r="AS72" s="16" t="n">
-        <v>97532</v>
+        <v>20143</v>
       </c>
       <c r="AT72" s="16" t="n">
-        <v>20143</v>
+        <v>85602</v>
       </c>
       <c r="AU72" s="16" t="n">
-        <v>85602</v>
+        <v>30909</v>
       </c>
       <c r="AV72" s="16" t="n">
-        <v>30909</v>
+        <v>15096</v>
       </c>
       <c r="AW72" s="16" t="n">
-        <v>15096</v>
+        <v>6251</v>
       </c>
       <c r="AX72" s="16" t="n">
-        <v>6251</v>
+        <v>-2714</v>
       </c>
       <c r="AY72" s="16" t="n">
-        <v>-2714</v>
+        <v>48207</v>
       </c>
       <c r="AZ72" s="16" t="n">
-        <v>48207</v>
+        <v>205238</v>
       </c>
       <c r="BA72" s="16" t="n">
-        <v>205238</v>
+        <v>212048</v>
       </c>
       <c r="BB72" s="16" t="n">
-        <v>212048</v>
+        <v>154349</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11826,45 +11826,45 @@
       <c r="N73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O73" s="13" t="s">
-        <v>57</v>
+      <c r="O73" s="13" t="n">
+        <v>2580800</v>
       </c>
       <c r="P73" s="13" t="n">
-        <v>2580800</v>
+        <v>3015717</v>
       </c>
       <c r="Q73" s="13" t="n">
-        <v>3015717</v>
+        <v>3354919</v>
       </c>
       <c r="R73" s="13" t="n">
-        <v>3354919</v>
+        <v>1650262</v>
       </c>
       <c r="S73" s="13" t="n">
-        <v>1650262</v>
+        <v>2463129</v>
       </c>
       <c r="T73" s="13" t="n">
-        <v>2463129</v>
+        <v>2076351</v>
       </c>
       <c r="U73" s="13" t="n">
-        <v>2076351</v>
+        <v>1211904</v>
       </c>
       <c r="V73" s="13" t="n">
-        <v>1211904</v>
+        <v>2310408</v>
       </c>
       <c r="W73" s="13" t="n">
-        <v>2310408</v>
+        <v>1897397</v>
       </c>
       <c r="X73" s="13" t="n">
-        <v>1897397</v>
+        <v>1496501</v>
       </c>
       <c r="Y73" s="13" t="n">
-        <v>1496501</v>
+        <v>1469337</v>
       </c>
       <c r="Z73" s="13" t="n">
-        <v>1469337</v>
-      </c>
-      <c r="AA73" s="13" t="n">
         <v>2214383</v>
       </c>
+      <c r="AA73" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB73" s="13" t="s">
         <v>57</v>
       </c>
@@ -11895,14 +11895,14 @@
       <c r="AK73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM73" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" s="13" t="s">
-        <v>57</v>
+      <c r="AL73" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO73" s="13" t="n">
         <v>0</v>
@@ -11916,8 +11916,8 @@
       <c r="AR73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS73" s="13" t="n">
-        <v>0</v>
+      <c r="AS73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT73" s="13" t="s">
         <v>57</v>
@@ -12021,8 +12021,8 @@
       <c r="Z74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA74" s="16" t="s">
-        <v>57</v>
+      <c r="AA74" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB74" s="16" t="n">
         <v>0</v>
@@ -12054,8 +12054,8 @@
       <c r="AK74" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL74" s="16" t="n">
-        <v>0</v>
+      <c r="AL74" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AM74" s="16" t="s">
         <v>57</v>
@@ -12180,23 +12180,23 @@
       <c r="Z75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA75" s="13" t="s">
-        <v>57</v>
+      <c r="AA75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB75" s="13" t="n">
-        <v>0</v>
+        <v>213749</v>
       </c>
       <c r="AC75" s="13" t="n">
-        <v>213749</v>
+        <v>28280</v>
       </c>
       <c r="AD75" s="13" t="n">
-        <v>28280</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="13" t="n">
-        <v>0</v>
+        <v>115649</v>
       </c>
       <c r="AF75" s="13" t="n">
-        <v>115649</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="13" t="n">
         <v>0</v>
@@ -12214,13 +12214,13 @@
         <v>0</v>
       </c>
       <c r="AL75" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" s="13" t="n">
         <v>43386</v>
       </c>
-      <c r="AN75" s="13" t="s">
-        <v>57</v>
+      <c r="AM75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO75" s="13" t="n">
         <v>0</v>
@@ -12229,13 +12229,13 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="13" t="n">
-        <v>0</v>
+        <v>-262</v>
       </c>
       <c r="AR75" s="13" t="n">
-        <v>-262</v>
+        <v>339266</v>
       </c>
       <c r="AS75" s="13" t="n">
-        <v>339266</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="13" t="n">
         <v>0</v>
@@ -12252,11 +12252,11 @@
       <c r="AX75" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY75" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ75" s="13" t="s">
-        <v>57</v>
+      <c r="AY75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA75" s="13" t="n">
         <v>0</v>
@@ -12274,38 +12274,38 @@
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="n">
-        <v>1847885</v>
+        <v>1827912</v>
       </c>
       <c r="F76" s="16" t="n">
-        <v>1827912</v>
+        <v>2300370</v>
       </c>
       <c r="G76" s="16" t="n">
-        <v>2300370</v>
+        <v>1689861</v>
       </c>
       <c r="H76" s="16" t="n">
-        <v>1689861</v>
+        <v>2354969</v>
       </c>
       <c r="I76" s="16" t="n">
-        <v>2354969</v>
+        <v>3023125</v>
       </c>
       <c r="J76" s="16" t="n">
-        <v>3023125</v>
+        <v>2972844</v>
       </c>
       <c r="K76" s="16" t="n">
-        <v>2972844</v>
+        <v>2871834</v>
       </c>
       <c r="L76" s="16" t="n">
-        <v>2871834</v>
+        <v>2747533</v>
       </c>
       <c r="M76" s="16" t="n">
-        <v>2747533</v>
+        <v>2743082</v>
       </c>
       <c r="N76" s="16" t="n">
-        <v>2743082</v>
-      </c>
-      <c r="O76" s="16" t="n">
         <v>3206019</v>
       </c>
+      <c r="O76" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P76" s="16" t="s">
         <v>57</v>
       </c>
@@ -12339,38 +12339,38 @@
       <c r="Z76" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA76" s="16" t="s">
-        <v>57</v>
+      <c r="AA76" s="16" t="n">
+        <v>3655355</v>
       </c>
       <c r="AB76" s="16" t="n">
-        <v>3655355</v>
+        <v>3729388</v>
       </c>
       <c r="AC76" s="16" t="n">
-        <v>3729388</v>
+        <v>4807213</v>
       </c>
       <c r="AD76" s="16" t="n">
-        <v>4807213</v>
+        <v>3815596</v>
       </c>
       <c r="AE76" s="16" t="n">
-        <v>3815596</v>
+        <v>4515304</v>
       </c>
       <c r="AF76" s="16" t="n">
-        <v>4515304</v>
+        <v>6347852</v>
       </c>
       <c r="AG76" s="16" t="n">
-        <v>6347852</v>
+        <v>6548395</v>
       </c>
       <c r="AH76" s="16" t="n">
-        <v>6548395</v>
+        <v>5368182</v>
       </c>
       <c r="AI76" s="16" t="n">
-        <v>5368182</v>
+        <v>5581282</v>
       </c>
       <c r="AJ76" s="16" t="n">
-        <v>5581282</v>
-      </c>
-      <c r="AK76" s="16" t="n">
         <v>5342739</v>
+      </c>
+      <c r="AK76" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AL76" s="16" t="s">
         <v>57</v>
@@ -12528,59 +12528,59 @@
       <c r="AJ77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK77" s="13" t="s">
-        <v>57</v>
+      <c r="AK77" s="13" t="n">
+        <v>2179816</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>2179816</v>
+        <v>2031620</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>2031620</v>
+        <v>2409060</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>2409060</v>
+        <v>2449732</v>
       </c>
       <c r="AO77" s="13" t="n">
         <v>2449732</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>2449732</v>
+        <v>1347901</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>1347901</v>
+        <v>3551156</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>3551156</v>
+        <v>11053151</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>11053151</v>
+        <v>12388622</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>12388622</v>
+        <v>5918985</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>5918985</v>
+        <v>7715448</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>7715448</v>
+        <v>7797090</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>7797090</v>
+        <v>8228997</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>8228997</v>
+        <v>7718281</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>7718281</v>
+        <v>8181778</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>8181778</v>
+        <v>8540434</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>8540434</v>
+        <v>9980572</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>9980572</v>
+        <v>6320405</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12687,59 +12687,59 @@
       <c r="AJ78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK78" s="16" t="s">
-        <v>57</v>
+      <c r="AK78" s="16" t="n">
+        <v>1990379</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>1990379</v>
+        <v>1393162</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>1393162</v>
+        <v>2396343</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>2396343</v>
+        <v>2498117</v>
       </c>
       <c r="AO78" s="16" t="n">
         <v>2498117</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>2498117</v>
+        <v>1377461</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>1377461</v>
+        <v>4006676</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>4006676</v>
+        <v>5128830</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>5128830</v>
+        <v>10113091</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>10113091</v>
+        <v>4694801</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>4694801</v>
+        <v>5647651</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>5647651</v>
+        <v>5722602</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>5722602</v>
+        <v>5890757</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>5890757</v>
+        <v>5139229</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>5139229</v>
+        <v>7760858</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>7760858</v>
+        <v>6045209</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>6045209</v>
+        <v>8968674</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>8968674</v>
+        <v>5572784</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12846,59 +12846,59 @@
       <c r="AJ79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK79" s="13" t="s">
-        <v>57</v>
+      <c r="AK79" s="13" t="n">
+        <v>551764</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>551764</v>
+        <v>508487</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>508487</v>
+        <v>596920</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>596920</v>
+        <v>710666</v>
       </c>
       <c r="AO79" s="13" t="n">
         <v>710666</v>
       </c>
       <c r="AP79" s="13" t="n">
-        <v>710666</v>
+        <v>571759</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>571759</v>
+        <v>649186</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>649186</v>
+        <v>2814568</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>2814568</v>
+        <v>3960617</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>3960617</v>
+        <v>1798975</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>1798975</v>
+        <v>2829608</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>2829608</v>
+        <v>2918854</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>2918854</v>
+        <v>3267005</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>3267005</v>
+        <v>3557633</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>3557633</v>
+        <v>3189463</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>3189463</v>
+        <v>3633774</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>3633774</v>
+        <v>4128142</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>4128142</v>
+        <v>2709456</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13005,59 +13005,59 @@
       <c r="AJ80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK80" s="16" t="s">
-        <v>57</v>
+      <c r="AK80" s="16" t="n">
+        <v>144954</v>
       </c>
       <c r="AL80" s="16" t="n">
-        <v>144954</v>
+        <v>153336</v>
       </c>
       <c r="AM80" s="16" t="n">
-        <v>153336</v>
+        <v>290369</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>290369</v>
+        <v>263632</v>
       </c>
       <c r="AO80" s="16" t="n">
         <v>263632</v>
       </c>
       <c r="AP80" s="16" t="n">
-        <v>263632</v>
+        <v>4720</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>4720</v>
+        <v>-19</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>-19</v>
+        <v>143662</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>143662</v>
+        <v>1550873</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>1550873</v>
+        <v>1339792</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>1339792</v>
+        <v>1522055</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>1522055</v>
+        <v>598446</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>598446</v>
+        <v>341009</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>341009</v>
+        <v>1061413</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>1061413</v>
+        <v>559177</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>559177</v>
+        <v>862431</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>862431</v>
+        <v>1055544</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>1055544</v>
+        <v>807248</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13164,26 +13164,26 @@
       <c r="AJ81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK81" s="13" t="s">
-        <v>57</v>
+      <c r="AK81" s="13" t="n">
+        <v>55414</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>55414</v>
+        <v>59392</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>59392</v>
+        <v>18473</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>18473</v>
+        <v>11498</v>
       </c>
       <c r="AO81" s="13" t="n">
         <v>11498</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>11498</v>
-      </c>
-      <c r="AQ81" s="13" t="n">
         <v>11257</v>
+      </c>
+      <c r="AQ81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR81" s="13" t="s">
         <v>57</v>
@@ -13323,59 +13323,59 @@
       <c r="AJ82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK82" s="16" t="s">
-        <v>57</v>
+      <c r="AK82" s="16" t="n">
+        <v>32600</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>32600</v>
+        <v>35923</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>35923</v>
+        <v>29219</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>29219</v>
+        <v>49267</v>
       </c>
       <c r="AO82" s="16" t="n">
         <v>49267</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>49267</v>
+        <v>42731</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>42731</v>
+        <v>72175</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>72175</v>
+        <v>204656</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>204656</v>
+        <v>114877</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>114877</v>
+        <v>77596</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>77596</v>
+        <v>72221</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>72221</v>
+        <v>55843</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>55843</v>
+        <v>70928</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>70928</v>
+        <v>93636</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>93636</v>
+        <v>92778</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>92778</v>
+        <v>102666</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>102666</v>
+        <v>160297</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>160297</v>
+        <v>60994</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13482,17 +13482,17 @@
       <c r="AJ83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK83" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL83" s="13" t="n">
+      <c r="AK83" s="13" t="n">
         <v>101644</v>
       </c>
-      <c r="AM83" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN83" s="13" t="n">
+      <c r="AL83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM83" s="13" t="n">
         <v>73964</v>
+      </c>
+      <c r="AN83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO83" s="13" t="s">
         <v>57</v>
@@ -13659,35 +13659,35 @@
       <c r="AP84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ84" s="16" t="s">
-        <v>57</v>
+      <c r="AQ84" s="16" t="n">
+        <v>6437</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>6437</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>0</v>
+        <v>6247</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>6247</v>
+        <v>7238</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>7238</v>
+        <v>0</v>
       </c>
       <c r="AV84" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>0</v>
+        <v>16838</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>16838</v>
-      </c>
-      <c r="AY84" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ84" s="16" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AY84" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ84" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA84" s="16" t="n">
         <v>0</v>
@@ -13818,41 +13818,41 @@
       <c r="AP85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ85" s="13" t="s">
-        <v>57</v>
+      <c r="AQ85" s="13" t="n">
+        <v>12590</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>12590</v>
+        <v>34081</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>34081</v>
+        <v>77096</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>77096</v>
+        <v>0</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>0</v>
+        <v>48216</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>48216</v>
+        <v>51013</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>51013</v>
+        <v>64692</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>64692</v>
+        <v>7779</v>
       </c>
       <c r="AY85" s="13" t="n">
+        <v>17826</v>
+      </c>
+      <c r="AZ85" s="13" t="n">
         <v>7779</v>
       </c>
-      <c r="AZ85" s="13" t="n">
-        <v>17826</v>
-      </c>
       <c r="BA85" s="13" t="n">
-        <v>7779</v>
+        <v>0</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>0</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13983,8 +13983,8 @@
       <c r="AR86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AS86" s="16" t="s">
-        <v>57</v>
+      <c r="AS86" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT86" s="16" t="n">
         <v>0</v>
@@ -13998,8 +13998,8 @@
       <c r="AW86" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX86" s="16" t="n">
-        <v>0</v>
+      <c r="AX86" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY86" s="16" t="s">
         <v>57</v>
@@ -14007,8 +14007,8 @@
       <c r="AZ86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA86" s="16" t="s">
-        <v>57</v>
+      <c r="BA86" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BB86" s="16" t="n">
         <v>0</v>
@@ -14136,41 +14136,41 @@
       <c r="AP87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ87" s="13" t="s">
-        <v>57</v>
+      <c r="AQ87" s="13" t="n">
+        <v>5416</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>5416</v>
+        <v>0</v>
       </c>
       <c r="AS87" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>0</v>
+        <v>327520</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>327520</v>
+        <v>116927</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>116927</v>
+        <v>75490</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>75490</v>
+        <v>32484</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>32484</v>
+        <v>140960</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>140960</v>
+        <v>21515</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>21515</v>
+        <v>53326</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>53326</v>
+        <v>21245</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>21245</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14295,8 +14295,8 @@
       <c r="AP88" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ88" s="16" t="s">
-        <v>57</v>
+      <c r="AQ88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR88" s="16" t="n">
         <v>0</v>
@@ -14319,11 +14319,11 @@
       <c r="AX88" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY88" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ88" s="16" t="s">
-        <v>57</v>
+      <c r="AY88" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA88" s="16" t="n">
         <v>0</v>
@@ -14457,8 +14457,8 @@
       <c r="AQ89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR89" s="13" t="s">
-        <v>57</v>
+      <c r="AR89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS89" s="13" t="n">
         <v>0</v>
@@ -14478,8 +14478,8 @@
       <c r="AX89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY89" s="13" t="n">
-        <v>0</v>
+      <c r="AY89" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ89" s="13" t="s">
         <v>57</v>
@@ -14661,8 +14661,8 @@
       <c r="AM91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN91" s="13" t="s">
-        <v>57</v>
+      <c r="AN91" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO91" s="13" t="n">
         <v>0</v>
@@ -14676,8 +14676,8 @@
       <c r="AR91" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS91" s="13" t="n">
-        <v>0</v>
+      <c r="AS91" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT91" s="13" t="s">
         <v>57</v>
@@ -14781,8 +14781,8 @@
       <c r="Z92" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AA92" s="18" t="s">
-        <v>57</v>
+      <c r="AA92" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB92" s="23" t="n">
         <v>0</v>
@@ -14997,8 +14997,8 @@
       <c r="Z94" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA94" s="20" t="s">
-        <v>57</v>
+      <c r="AA94" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AB94" s="24" t="n">
         <v>0</v>
@@ -15213,89 +15213,89 @@
       <c r="Z96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA96" s="13" t="s">
-        <v>57</v>
+      <c r="AA96" s="13" t="n">
+        <v>-94163</v>
       </c>
       <c r="AB96" s="13" t="n">
-        <v>-94163</v>
+        <v>-137794</v>
       </c>
       <c r="AC96" s="13" t="n">
-        <v>-137794</v>
+        <v>-160867</v>
       </c>
       <c r="AD96" s="13" t="n">
-        <v>-160867</v>
+        <v>-132957</v>
       </c>
       <c r="AE96" s="13" t="n">
-        <v>-132957</v>
+        <v>-166178</v>
       </c>
       <c r="AF96" s="13" t="n">
-        <v>-166178</v>
+        <v>-159975</v>
       </c>
       <c r="AG96" s="13" t="n">
-        <v>-159975</v>
+        <v>-199790</v>
       </c>
       <c r="AH96" s="13" t="n">
-        <v>-199790</v>
+        <v>-141327</v>
       </c>
       <c r="AI96" s="13" t="n">
-        <v>-141327</v>
+        <v>-226083</v>
       </c>
       <c r="AJ96" s="13" t="n">
-        <v>-226083</v>
+        <v>-162469</v>
       </c>
       <c r="AK96" s="13" t="n">
-        <v>-162469</v>
+        <v>-9851</v>
       </c>
       <c r="AL96" s="13" t="n">
-        <v>-9851</v>
+        <v>-174864</v>
       </c>
       <c r="AM96" s="13" t="n">
-        <v>-174864</v>
+        <v>-144552</v>
       </c>
       <c r="AN96" s="13" t="n">
-        <v>-144552</v>
+        <v>-194266</v>
       </c>
       <c r="AO96" s="13" t="n">
         <v>-194266</v>
       </c>
       <c r="AP96" s="13" t="n">
-        <v>-194266</v>
+        <v>-112332</v>
       </c>
       <c r="AQ96" s="13" t="n">
-        <v>-112332</v>
+        <v>-223594</v>
       </c>
       <c r="AR96" s="13" t="n">
-        <v>-223594</v>
+        <v>-412144</v>
       </c>
       <c r="AS96" s="13" t="n">
-        <v>-412144</v>
+        <v>-1150534</v>
       </c>
       <c r="AT96" s="13" t="n">
-        <v>-1150534</v>
+        <v>-1545296</v>
       </c>
       <c r="AU96" s="13" t="n">
-        <v>-1545296</v>
+        <v>-1258430</v>
       </c>
       <c r="AV96" s="13" t="n">
-        <v>-1258430</v>
+        <v>-1711873</v>
       </c>
       <c r="AW96" s="13" t="n">
-        <v>-1711873</v>
+        <v>-1862159</v>
       </c>
       <c r="AX96" s="13" t="n">
-        <v>-1862159</v>
+        <v>-1571755</v>
       </c>
       <c r="AY96" s="13" t="n">
-        <v>-1571755</v>
+        <v>-1437843</v>
       </c>
       <c r="AZ96" s="13" t="n">
-        <v>-1437843</v>
+        <v>-1498634</v>
       </c>
       <c r="BA96" s="13" t="n">
-        <v>-1498634</v>
+        <v>-2290215</v>
       </c>
       <c r="BB96" s="13" t="n">
-        <v>-2290215</v>
+        <v>-1089588</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15305,154 +15305,154 @@
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
       <c r="E97" s="23" t="n">
-        <v>1847885</v>
+        <v>1827912</v>
       </c>
       <c r="F97" s="23" t="n">
-        <v>1827912</v>
+        <v>2300370</v>
       </c>
       <c r="G97" s="23" t="n">
-        <v>2300370</v>
+        <v>1689861</v>
       </c>
       <c r="H97" s="23" t="n">
-        <v>1689861</v>
+        <v>2354969</v>
       </c>
       <c r="I97" s="23" t="n">
-        <v>2354969</v>
+        <v>3023125</v>
       </c>
       <c r="J97" s="23" t="n">
-        <v>3023125</v>
+        <v>2972844</v>
       </c>
       <c r="K97" s="23" t="n">
-        <v>2972844</v>
+        <v>2871834</v>
       </c>
       <c r="L97" s="23" t="n">
-        <v>2871834</v>
+        <v>2747533</v>
       </c>
       <c r="M97" s="23" t="n">
-        <v>2747533</v>
+        <v>2743082</v>
       </c>
       <c r="N97" s="23" t="n">
-        <v>2743082</v>
+        <v>3206019</v>
       </c>
       <c r="O97" s="23" t="n">
-        <v>3206019</v>
+        <v>2580800</v>
       </c>
       <c r="P97" s="23" t="n">
-        <v>2580800</v>
+        <v>3015717</v>
       </c>
       <c r="Q97" s="23" t="n">
-        <v>3015717</v>
+        <v>3354919</v>
       </c>
       <c r="R97" s="23" t="n">
-        <v>3354919</v>
+        <v>1650262</v>
       </c>
       <c r="S97" s="23" t="n">
-        <v>1650262</v>
+        <v>2463129</v>
       </c>
       <c r="T97" s="23" t="n">
-        <v>2463129</v>
+        <v>2076351</v>
       </c>
       <c r="U97" s="23" t="n">
-        <v>2076351</v>
+        <v>1211904</v>
       </c>
       <c r="V97" s="23" t="n">
-        <v>1211904</v>
+        <v>2310408</v>
       </c>
       <c r="W97" s="23" t="n">
-        <v>2310408</v>
+        <v>1897397</v>
       </c>
       <c r="X97" s="23" t="n">
-        <v>1897397</v>
+        <v>1496501</v>
       </c>
       <c r="Y97" s="23" t="n">
-        <v>1496501</v>
+        <v>1469337</v>
       </c>
       <c r="Z97" s="23" t="n">
-        <v>1469337</v>
+        <v>2214383</v>
       </c>
       <c r="AA97" s="23" t="n">
-        <v>2214383</v>
+        <v>3561200</v>
       </c>
       <c r="AB97" s="23" t="n">
-        <v>3561200</v>
+        <v>3805343</v>
       </c>
       <c r="AC97" s="23" t="n">
-        <v>3805343</v>
+        <v>4674626</v>
       </c>
       <c r="AD97" s="23" t="n">
-        <v>4674626</v>
+        <v>3682639</v>
       </c>
       <c r="AE97" s="23" t="n">
-        <v>3682639</v>
+        <v>4464775</v>
       </c>
       <c r="AF97" s="23" t="n">
-        <v>4464775</v>
+        <v>6187877</v>
       </c>
       <c r="AG97" s="23" t="n">
-        <v>6187877</v>
+        <v>6348605</v>
       </c>
       <c r="AH97" s="23" t="n">
-        <v>6348605</v>
+        <v>5226855</v>
       </c>
       <c r="AI97" s="23" t="n">
-        <v>5226855</v>
+        <v>5355199</v>
       </c>
       <c r="AJ97" s="23" t="n">
-        <v>5355199</v>
+        <v>5180270</v>
       </c>
       <c r="AK97" s="23" t="n">
-        <v>5180270</v>
+        <v>5230832</v>
       </c>
       <c r="AL97" s="23" t="n">
-        <v>5230832</v>
+        <v>4151330</v>
       </c>
       <c r="AM97" s="23" t="n">
-        <v>4151330</v>
+        <v>5838909</v>
       </c>
       <c r="AN97" s="23" t="n">
-        <v>5838909</v>
+        <v>5930516</v>
       </c>
       <c r="AO97" s="23" t="n">
         <v>5930516</v>
       </c>
       <c r="AP97" s="23" t="n">
-        <v>5930516</v>
+        <v>3273371</v>
       </c>
       <c r="AQ97" s="23" t="n">
-        <v>3273371</v>
+        <v>8214905</v>
       </c>
       <c r="AR97" s="23" t="n">
-        <v>8214905</v>
+        <v>19403602</v>
       </c>
       <c r="AS97" s="23" t="n">
-        <v>19403602</v>
+        <v>27081032</v>
       </c>
       <c r="AT97" s="23" t="n">
-        <v>27081032</v>
+        <v>12705213</v>
       </c>
       <c r="AU97" s="23" t="n">
-        <v>12705213</v>
+        <v>16724605</v>
       </c>
       <c r="AV97" s="23" t="n">
-        <v>16724605</v>
+        <v>15522561</v>
       </c>
       <c r="AW97" s="23" t="n">
-        <v>15522561</v>
+        <v>16056802</v>
       </c>
       <c r="AX97" s="23" t="n">
-        <v>16056802</v>
+        <v>16144462</v>
       </c>
       <c r="AY97" s="23" t="n">
-        <v>16144462</v>
+        <v>18433759</v>
       </c>
       <c r="AZ97" s="23" t="n">
-        <v>18433759</v>
+        <v>17952223</v>
       </c>
       <c r="BA97" s="23" t="n">
-        <v>17952223</v>
+        <v>22236307</v>
       </c>
       <c r="BB97" s="23" t="n">
-        <v>22236307</v>
+        <v>14584797</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15993,59 +15993,59 @@
       <c r="AJ104" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK104" s="13" t="s">
-        <v>57</v>
+      <c r="AK104" s="13" t="n">
+        <v>52558379</v>
       </c>
       <c r="AL104" s="13" t="n">
-        <v>52558379</v>
+        <v>28841624</v>
       </c>
       <c r="AM104" s="13" t="n">
-        <v>28841624</v>
+        <v>38592652</v>
       </c>
       <c r="AN104" s="13" t="n">
-        <v>38592652</v>
+        <v>36339652</v>
       </c>
       <c r="AO104" s="13" t="n">
         <v>36339652</v>
       </c>
       <c r="AP104" s="13" t="n">
-        <v>36339652</v>
+        <v>25664948</v>
       </c>
       <c r="AQ104" s="13" t="n">
-        <v>25664948</v>
+        <v>38491598</v>
       </c>
       <c r="AR104" s="13" t="n">
-        <v>38491598</v>
+        <v>38580696</v>
       </c>
       <c r="AS104" s="13" t="n">
-        <v>38580696</v>
+        <v>22556551</v>
       </c>
       <c r="AT104" s="13" t="n">
-        <v>22556551</v>
+        <v>54662835</v>
       </c>
       <c r="AU104" s="13" t="n">
-        <v>54662835</v>
+        <v>33706652</v>
       </c>
       <c r="AV104" s="13" t="n">
-        <v>33706652</v>
+        <v>31515658</v>
       </c>
       <c r="AW104" s="13" t="n">
-        <v>31515658</v>
+        <v>102475410</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>102475410</v>
+        <v>104384615</v>
       </c>
       <c r="AY104" s="13" t="n">
-        <v>104384615</v>
+        <v>59368227</v>
       </c>
       <c r="AZ104" s="13" t="n">
-        <v>59368227</v>
+        <v>34680297</v>
       </c>
       <c r="BA104" s="13" t="n">
-        <v>34680297</v>
+        <v>38936467</v>
       </c>
       <c r="BB104" s="13" t="n">
-        <v>38936467</v>
+        <v>81752648</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16086,44 +16086,44 @@
       <c r="N105" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O105" s="16" t="s">
-        <v>57</v>
+      <c r="O105" s="16" t="n">
+        <v>72620857</v>
       </c>
       <c r="P105" s="16" t="n">
-        <v>72620857</v>
+        <v>77136203</v>
       </c>
       <c r="Q105" s="16" t="n">
-        <v>77136203</v>
+        <v>78114019</v>
       </c>
       <c r="R105" s="16" t="n">
-        <v>78114019</v>
+        <v>79103729</v>
       </c>
       <c r="S105" s="16" t="n">
-        <v>79103729</v>
+        <v>80605046</v>
       </c>
       <c r="T105" s="16" t="n">
-        <v>80605046</v>
+        <v>76637914</v>
       </c>
       <c r="U105" s="16" t="n">
-        <v>76637914</v>
+        <v>82040617</v>
       </c>
       <c r="V105" s="16" t="n">
-        <v>82040617</v>
+        <v>87744788</v>
       </c>
       <c r="W105" s="16" t="n">
-        <v>87744788</v>
+        <v>87611257</v>
       </c>
       <c r="X105" s="16" t="n">
-        <v>87611257</v>
+        <v>98363415</v>
       </c>
       <c r="Y105" s="16" t="n">
-        <v>98363415</v>
+        <v>100591292</v>
       </c>
       <c r="Z105" s="16" t="n">
-        <v>100591292</v>
-      </c>
-      <c r="AA105" s="16" t="n">
         <v>98741773</v>
+      </c>
+      <c r="AA105" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AB105" s="16" t="s">
         <v>57</v>
@@ -16284,21 +16284,21 @@
       <c r="AA106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB106" s="13" t="s">
-        <v>57</v>
+      <c r="AB106" s="13" t="n">
+        <v>29999860</v>
       </c>
       <c r="AC106" s="13" t="n">
-        <v>29999860</v>
-      </c>
-      <c r="AD106" s="13" t="n">
         <v>23237469</v>
       </c>
-      <c r="AE106" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF106" s="13" t="n">
+      <c r="AD106" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE106" s="13" t="n">
         <v>30322234</v>
       </c>
+      <c r="AF106" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG106" s="13" t="s">
         <v>57</v>
       </c>
@@ -16314,12 +16314,12 @@
       <c r="AK106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL106" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM106" s="13" t="n">
+      <c r="AL106" s="13" t="n">
         <v>30129167</v>
       </c>
+      <c r="AM106" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AN106" s="13" t="s">
         <v>57</v>
       </c>
@@ -16329,14 +16329,14 @@
       <c r="AP106" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ106" s="13" t="s">
-        <v>57</v>
+      <c r="AQ106" s="13" t="n">
+        <v>26200000</v>
       </c>
       <c r="AR106" s="13" t="n">
-        <v>26200000</v>
-      </c>
-      <c r="AS106" s="13" t="n">
         <v>70067328</v>
+      </c>
+      <c r="AS106" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT106" s="13" t="s">
         <v>57</v>
@@ -16375,38 +16375,38 @@
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16" t="n">
-        <v>66619259</v>
+        <v>66471944</v>
       </c>
       <c r="F107" s="16" t="n">
-        <v>66471944</v>
+        <v>68803314</v>
       </c>
       <c r="G107" s="16" t="n">
-        <v>68803314</v>
+        <v>71041367</v>
       </c>
       <c r="H107" s="16" t="n">
-        <v>71041367</v>
+        <v>74898830</v>
       </c>
       <c r="I107" s="16" t="n">
-        <v>74898830</v>
+        <v>77781280</v>
       </c>
       <c r="J107" s="16" t="n">
-        <v>77781280</v>
+        <v>76859381</v>
       </c>
       <c r="K107" s="16" t="n">
-        <v>76859381</v>
+        <v>75421751</v>
       </c>
       <c r="L107" s="16" t="n">
-        <v>75421751</v>
+        <v>73999650</v>
       </c>
       <c r="M107" s="16" t="n">
-        <v>73999650</v>
+        <v>72870972</v>
       </c>
       <c r="N107" s="16" t="n">
-        <v>72870972</v>
-      </c>
-      <c r="O107" s="16" t="n">
         <v>69455989</v>
       </c>
+      <c r="O107" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="P107" s="16" t="s">
         <v>57</v>
       </c>
@@ -16440,38 +16440,38 @@
       <c r="Z107" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AA107" s="16" t="s">
-        <v>57</v>
+      <c r="AA107" s="16" t="n">
+        <v>102730454</v>
       </c>
       <c r="AB107" s="16" t="n">
-        <v>102730454</v>
+        <v>104149576</v>
       </c>
       <c r="AC107" s="16" t="n">
-        <v>104149576</v>
+        <v>118866846</v>
       </c>
       <c r="AD107" s="16" t="n">
-        <v>118866846</v>
+        <v>111900874</v>
       </c>
       <c r="AE107" s="16" t="n">
-        <v>111900874</v>
+        <v>120132603</v>
       </c>
       <c r="AF107" s="16" t="n">
-        <v>120132603</v>
+        <v>149343654</v>
       </c>
       <c r="AG107" s="16" t="n">
-        <v>149343654</v>
+        <v>153956717</v>
       </c>
       <c r="AH107" s="16" t="n">
-        <v>153956717</v>
+        <v>149394206</v>
       </c>
       <c r="AI107" s="16" t="n">
-        <v>149394206</v>
+        <v>146214031</v>
       </c>
       <c r="AJ107" s="16" t="n">
-        <v>146214031</v>
-      </c>
-      <c r="AK107" s="16" t="n">
         <v>149761430</v>
+      </c>
+      <c r="AK107" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AL107" s="16" t="s">
         <v>57</v>
@@ -16629,59 +16629,59 @@
       <c r="AJ108" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK108" s="13" t="s">
-        <v>57</v>
+      <c r="AK108" s="13" t="n">
+        <v>155102889</v>
       </c>
       <c r="AL108" s="13" t="n">
-        <v>155102889</v>
+        <v>153329811</v>
       </c>
       <c r="AM108" s="13" t="n">
-        <v>153329811</v>
+        <v>157393179</v>
       </c>
       <c r="AN108" s="13" t="n">
-        <v>157393179</v>
+        <v>157154991</v>
       </c>
       <c r="AO108" s="13" t="n">
         <v>157154991</v>
       </c>
       <c r="AP108" s="13" t="n">
-        <v>157154991</v>
+        <v>165264958</v>
       </c>
       <c r="AQ108" s="13" t="n">
-        <v>165264958</v>
+        <v>445174376</v>
       </c>
       <c r="AR108" s="13" t="n">
-        <v>445174376</v>
+        <v>747845129</v>
       </c>
       <c r="AS108" s="13" t="n">
-        <v>747845129</v>
+        <v>728356870</v>
       </c>
       <c r="AT108" s="13" t="n">
-        <v>728356870</v>
+        <v>686497912</v>
       </c>
       <c r="AU108" s="13" t="n">
-        <v>686497912</v>
+        <v>655796685</v>
       </c>
       <c r="AV108" s="13" t="n">
-        <v>655796685</v>
+        <v>657427487</v>
       </c>
       <c r="AW108" s="13" t="n">
-        <v>657427487</v>
+        <v>664057214</v>
       </c>
       <c r="AX108" s="13" t="n">
-        <v>664057214</v>
+        <v>659062505</v>
       </c>
       <c r="AY108" s="13" t="n">
-        <v>659062505</v>
+        <v>655486140</v>
       </c>
       <c r="AZ108" s="13" t="n">
-        <v>655486140</v>
+        <v>662922766</v>
       </c>
       <c r="BA108" s="13" t="n">
-        <v>662922766</v>
+        <v>659959796</v>
       </c>
       <c r="BB108" s="13" t="n">
-        <v>659959796</v>
+        <v>660163464</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16788,59 +16788,59 @@
       <c r="AJ109" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK109" s="16" t="s">
-        <v>57</v>
+      <c r="AK109" s="16" t="n">
+        <v>168163146</v>
       </c>
       <c r="AL109" s="16" t="n">
-        <v>168163146</v>
+        <v>167709402</v>
       </c>
       <c r="AM109" s="16" t="n">
-        <v>167709402</v>
+        <v>173811779</v>
       </c>
       <c r="AN109" s="16" t="n">
-        <v>173811779</v>
+        <v>170345517</v>
       </c>
       <c r="AO109" s="16" t="n">
         <v>170345517</v>
       </c>
       <c r="AP109" s="16" t="n">
-        <v>170345517</v>
+        <v>182856896</v>
       </c>
       <c r="AQ109" s="16" t="n">
-        <v>182856896</v>
+        <v>391468100</v>
       </c>
       <c r="AR109" s="16" t="n">
-        <v>391468100</v>
+        <v>767444262</v>
       </c>
       <c r="AS109" s="16" t="n">
-        <v>767444262</v>
+        <v>741809653</v>
       </c>
       <c r="AT109" s="16" t="n">
-        <v>741809653</v>
+        <v>684772608</v>
       </c>
       <c r="AU109" s="16" t="n">
-        <v>684772608</v>
+        <v>664351370</v>
       </c>
       <c r="AV109" s="16" t="n">
-        <v>664351370</v>
+        <v>668216021</v>
       </c>
       <c r="AW109" s="16" t="n">
-        <v>668216021</v>
+        <v>669100068</v>
       </c>
       <c r="AX109" s="16" t="n">
-        <v>669100068</v>
+        <v>683135584</v>
       </c>
       <c r="AY109" s="16" t="n">
-        <v>683135584</v>
+        <v>681135510</v>
       </c>
       <c r="AZ109" s="16" t="n">
-        <v>681135510</v>
+        <v>670795495</v>
       </c>
       <c r="BA109" s="16" t="n">
-        <v>670795495</v>
+        <v>668655334</v>
       </c>
       <c r="BB109" s="16" t="n">
-        <v>668655334</v>
+        <v>666920057</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16947,59 +16947,59 @@
       <c r="AJ110" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK110" s="13" t="s">
-        <v>57</v>
+      <c r="AK110" s="13" t="n">
+        <v>123299218</v>
       </c>
       <c r="AL110" s="13" t="n">
-        <v>123299218</v>
+        <v>136031835</v>
       </c>
       <c r="AM110" s="13" t="n">
-        <v>136031835</v>
+        <v>133330355</v>
       </c>
       <c r="AN110" s="13" t="n">
-        <v>133330355</v>
+        <v>165965904</v>
       </c>
       <c r="AO110" s="13" t="n">
         <v>165965904</v>
       </c>
       <c r="AP110" s="13" t="n">
-        <v>165965904</v>
+        <v>157379301</v>
       </c>
       <c r="AQ110" s="13" t="n">
-        <v>157379301</v>
+        <v>356108612</v>
       </c>
       <c r="AR110" s="13" t="n">
-        <v>356108612</v>
+        <v>619675914</v>
       </c>
       <c r="AS110" s="13" t="n">
-        <v>619675914</v>
+        <v>586584271</v>
       </c>
       <c r="AT110" s="13" t="n">
-        <v>586584271</v>
+        <v>537328256</v>
       </c>
       <c r="AU110" s="13" t="n">
-        <v>537328256</v>
+        <v>503937311</v>
       </c>
       <c r="AV110" s="13" t="n">
-        <v>503937311</v>
+        <v>511989826</v>
       </c>
       <c r="AW110" s="13" t="n">
-        <v>511989826</v>
+        <v>516033012</v>
       </c>
       <c r="AX110" s="13" t="n">
-        <v>516033012</v>
+        <v>512922866</v>
       </c>
       <c r="AY110" s="13" t="n">
-        <v>512922866</v>
+        <v>509580284</v>
       </c>
       <c r="AZ110" s="13" t="n">
-        <v>509580284</v>
+        <v>509288577</v>
       </c>
       <c r="BA110" s="13" t="n">
-        <v>509288577</v>
+        <v>510214065</v>
       </c>
       <c r="BB110" s="13" t="n">
-        <v>510214065</v>
+        <v>505495522</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17106,59 +17106,59 @@
       <c r="AJ111" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK111" s="16" t="s">
-        <v>57</v>
+      <c r="AK111" s="16" t="n">
+        <v>141695015</v>
       </c>
       <c r="AL111" s="16" t="n">
-        <v>141695015</v>
+        <v>142109361</v>
       </c>
       <c r="AM111" s="16" t="n">
-        <v>142109361</v>
+        <v>142968488</v>
       </c>
       <c r="AN111" s="16" t="n">
-        <v>142968488</v>
+        <v>144693743</v>
       </c>
       <c r="AO111" s="16" t="n">
         <v>144693743</v>
       </c>
       <c r="AP111" s="16" t="n">
-        <v>144693743</v>
-      </c>
-      <c r="AQ111" s="16" t="n">
         <v>143030303</v>
       </c>
-      <c r="AR111" s="16" t="s">
-        <v>57</v>
+      <c r="AQ111" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR111" s="16" t="n">
+        <v>662036866</v>
       </c>
       <c r="AS111" s="16" t="n">
-        <v>662036866</v>
+        <v>636125103</v>
       </c>
       <c r="AT111" s="16" t="n">
-        <v>636125103</v>
+        <v>582265102</v>
       </c>
       <c r="AU111" s="16" t="n">
-        <v>582265102</v>
+        <v>543009276</v>
       </c>
       <c r="AV111" s="16" t="n">
-        <v>543009276</v>
+        <v>544536852</v>
       </c>
       <c r="AW111" s="16" t="n">
-        <v>544536852</v>
+        <v>548245981</v>
       </c>
       <c r="AX111" s="16" t="n">
-        <v>548245981</v>
+        <v>542644683</v>
       </c>
       <c r="AY111" s="16" t="n">
-        <v>542644683</v>
+        <v>540790135</v>
       </c>
       <c r="AZ111" s="16" t="n">
-        <v>540790135</v>
+        <v>544807960</v>
       </c>
       <c r="BA111" s="16" t="n">
-        <v>544807960</v>
+        <v>546065184</v>
       </c>
       <c r="BB111" s="16" t="n">
-        <v>546065184</v>
+        <v>540688547</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17265,26 +17265,26 @@
       <c r="AJ112" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK112" s="13" t="s">
-        <v>57</v>
+      <c r="AK112" s="13" t="n">
+        <v>100936248</v>
       </c>
       <c r="AL112" s="13" t="n">
-        <v>100936248</v>
+        <v>128000000</v>
       </c>
       <c r="AM112" s="13" t="n">
-        <v>128000000</v>
+        <v>100945355</v>
       </c>
       <c r="AN112" s="13" t="n">
-        <v>100945355</v>
+        <v>66848837</v>
       </c>
       <c r="AO112" s="13" t="n">
         <v>66848837</v>
       </c>
       <c r="AP112" s="13" t="n">
-        <v>66848837</v>
-      </c>
-      <c r="AQ112" s="13" t="n">
         <v>274560976</v>
+      </c>
+      <c r="AQ112" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR112" s="13" t="s">
         <v>57</v>
@@ -17424,59 +17424,59 @@
       <c r="AJ113" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AK113" s="16" t="s">
-        <v>57</v>
+      <c r="AK113" s="16" t="n">
+        <v>350537634</v>
       </c>
       <c r="AL113" s="16" t="n">
-        <v>350537634</v>
+        <v>359230000</v>
       </c>
       <c r="AM113" s="16" t="n">
-        <v>359230000</v>
+        <v>352036145</v>
       </c>
       <c r="AN113" s="16" t="n">
-        <v>352036145</v>
+        <v>289805882</v>
       </c>
       <c r="AO113" s="16" t="n">
         <v>289805882</v>
       </c>
       <c r="AP113" s="16" t="n">
-        <v>289805882</v>
+        <v>298818182</v>
       </c>
       <c r="AQ113" s="16" t="n">
-        <v>298818182</v>
+        <v>286408730</v>
       </c>
       <c r="AR113" s="16" t="n">
-        <v>286408730</v>
+        <v>882137931</v>
       </c>
       <c r="AS113" s="16" t="n">
-        <v>882137931</v>
+        <v>911722222</v>
       </c>
       <c r="AT113" s="16" t="n">
-        <v>911722222</v>
+        <v>923761905</v>
       </c>
       <c r="AU113" s="16" t="n">
-        <v>923761905</v>
+        <v>830126437</v>
       </c>
       <c r="AV113" s="16" t="n">
-        <v>830126437</v>
+        <v>809318841</v>
       </c>
       <c r="AW113" s="16" t="n">
-        <v>809318841</v>
+        <v>788088889</v>
       </c>
       <c r="AX113" s="16" t="n">
-        <v>788088889</v>
+        <v>767508197</v>
       </c>
       <c r="AY113" s="16" t="n">
-        <v>767508197</v>
+        <v>773150000</v>
       </c>
       <c r="AZ113" s="16" t="n">
-        <v>773150000</v>
+        <v>777772727</v>
       </c>
       <c r="BA113" s="16" t="n">
-        <v>777772727</v>
+        <v>756117925</v>
       </c>
       <c r="BB113" s="16" t="n">
-        <v>756117925</v>
+        <v>792129870</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17583,17 +17583,17 @@
       <c r="AJ114" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK114" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL114" s="13" t="n">
+      <c r="AK114" s="13" t="n">
         <v>119160610</v>
       </c>
-      <c r="AM114" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN114" s="13" t="n">
+      <c r="AL114" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM114" s="13" t="n">
         <v>113267994</v>
+      </c>
+      <c r="AN114" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO114" s="13" t="s">
         <v>57</v>
@@ -17760,29 +17760,29 @@
       <c r="AP115" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ115" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR115" s="16" t="n">
+      <c r="AQ115" s="16" t="n">
         <v>1287400000</v>
       </c>
-      <c r="AS115" s="16" t="s">
-        <v>57</v>
+      <c r="AR115" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS115" s="16" t="n">
+        <v>1249400000</v>
       </c>
       <c r="AT115" s="16" t="n">
-        <v>1249400000</v>
-      </c>
-      <c r="AU115" s="16" t="n">
         <v>1447600000</v>
       </c>
+      <c r="AU115" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AV115" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AW115" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX115" s="16" t="n">
+      <c r="AW115" s="16" t="n">
         <v>1683800000</v>
+      </c>
+      <c r="AX115" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AY115" s="16" t="s">
         <v>57</v>
@@ -17919,41 +17919,41 @@
       <c r="AP116" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ116" s="13" t="s">
-        <v>57</v>
+      <c r="AQ116" s="13" t="n">
+        <v>224821429</v>
       </c>
       <c r="AR116" s="13" t="n">
-        <v>224821429</v>
+        <v>608589286</v>
       </c>
       <c r="AS116" s="13" t="n">
-        <v>608589286</v>
-      </c>
-      <c r="AT116" s="13" t="n">
         <v>611873016</v>
       </c>
-      <c r="AU116" s="13" t="s">
-        <v>57</v>
+      <c r="AT116" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU116" s="13" t="n">
+        <v>518451613</v>
       </c>
       <c r="AV116" s="13" t="n">
-        <v>518451613</v>
+        <v>520540816</v>
       </c>
       <c r="AW116" s="13" t="n">
-        <v>520540816</v>
+        <v>517536000</v>
       </c>
       <c r="AX116" s="13" t="n">
-        <v>517536000</v>
+        <v>518600000</v>
       </c>
       <c r="AY116" s="13" t="n">
+        <v>524294118</v>
+      </c>
+      <c r="AZ116" s="13" t="n">
         <v>518600000</v>
       </c>
-      <c r="AZ116" s="13" t="n">
-        <v>524294118</v>
-      </c>
-      <c r="BA116" s="13" t="n">
-        <v>518600000</v>
-      </c>
-      <c r="BB116" s="13" t="s">
-        <v>57</v>
+      <c r="BA116" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB116" s="13" t="n">
+        <v>525833333</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18237,41 +18237,41 @@
       <c r="AP118" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ118" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR118" s="13" t="n">
+      <c r="AQ118" s="13" t="n">
         <v>95017544</v>
       </c>
+      <c r="AR118" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS118" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT118" s="13" t="s">
-        <v>57</v>
+      <c r="AT118" s="13" t="n">
+        <v>550453782</v>
       </c>
       <c r="AU118" s="13" t="n">
-        <v>550453782</v>
+        <v>501832618</v>
       </c>
       <c r="AV118" s="13" t="n">
-        <v>501832618</v>
+        <v>503266667</v>
       </c>
       <c r="AW118" s="13" t="n">
-        <v>503266667</v>
+        <v>499753846</v>
       </c>
       <c r="AX118" s="13" t="n">
-        <v>499753846</v>
+        <v>503428571</v>
       </c>
       <c r="AY118" s="13" t="n">
-        <v>503428571</v>
+        <v>500348837</v>
       </c>
       <c r="AZ118" s="13" t="n">
-        <v>500348837</v>
+        <v>503075472</v>
       </c>
       <c r="BA118" s="13" t="n">
-        <v>503075472</v>
+        <v>505833333</v>
       </c>
       <c r="BB118" s="13" t="n">
-        <v>505833333</v>
+        <v>133315942</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18603,8 +18603,8 @@
       <c r="AM121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN121" s="13" t="s">
-        <v>57</v>
+      <c r="AN121" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO121" s="13" t="n">
         <v>0</v>
@@ -18618,8 +18618,8 @@
       <c r="AR121" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS121" s="13" t="n">
-        <v>0</v>
+      <c r="AS121" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT121" s="13" t="s">
         <v>57</v>

--- a/database/industries/ghaza/ghebshahr/product/monthly.xlsx
+++ b/database/industries/ghaza/ghebshahr/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghebshahr\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghebshahr\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C8A766-81E9-4CAE-A0A8-2CD9D1EA5B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DFBB9C-9B7C-4810-BF37-4821684CC3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 4 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/02</t>
   </si>
   <si>
     <t>محصول نیمه ساخته</t>
@@ -1519,8 +1519,8 @@
       <c r="Y11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>57</v>
+      <c r="Z11" s="11">
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -1549,8 +1549,8 @@
       <c r="AI11" s="11">
         <v>0</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
+      <c r="AJ11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>57</v>
@@ -1708,62 +1708,62 @@
       <c r="AI12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ12" s="13" t="s">
-        <v>57</v>
+      <c r="AJ12" s="13">
+        <v>4289</v>
       </c>
       <c r="AK12" s="13">
-        <v>4289</v>
+        <v>3467</v>
       </c>
       <c r="AL12" s="13">
-        <v>3467</v>
+        <v>3768</v>
       </c>
       <c r="AM12" s="13">
-        <v>3768</v>
+        <v>3574</v>
       </c>
       <c r="AN12" s="13">
         <v>3574</v>
       </c>
       <c r="AO12" s="13">
-        <v>3574</v>
+        <v>1752</v>
       </c>
       <c r="AP12" s="13">
-        <v>1752</v>
+        <v>3561</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3561</v>
+        <v>1987</v>
       </c>
       <c r="AR12" s="13">
-        <v>1987</v>
+        <v>869</v>
       </c>
       <c r="AS12" s="13">
-        <v>869</v>
+        <v>1454</v>
       </c>
       <c r="AT12" s="13">
-        <v>1454</v>
+        <v>772</v>
       </c>
       <c r="AU12" s="13">
-        <v>772</v>
+        <v>516</v>
       </c>
       <c r="AV12" s="13">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="13">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AX12" s="13">
-        <v>72</v>
+        <v>1169</v>
       </c>
       <c r="AY12" s="13">
-        <v>1169</v>
+        <v>5728</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5728</v>
+        <v>5555</v>
       </c>
       <c r="BA12" s="13">
-        <v>5555</v>
+        <v>1747</v>
       </c>
       <c r="BB12" s="13">
-        <v>1747</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1801,45 +1801,45 @@
       <c r="M13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="11" t="s">
-        <v>57</v>
+      <c r="N13" s="11">
+        <v>36025</v>
       </c>
       <c r="O13" s="11">
-        <v>36025</v>
+        <v>39773</v>
       </c>
       <c r="P13" s="11">
-        <v>39773</v>
+        <v>38340</v>
       </c>
       <c r="Q13" s="11">
-        <v>38340</v>
+        <v>22302</v>
       </c>
       <c r="R13" s="11">
-        <v>22302</v>
+        <v>29129</v>
       </c>
       <c r="S13" s="11">
-        <v>29129</v>
+        <v>27148</v>
       </c>
       <c r="T13" s="11">
-        <v>27148</v>
+        <v>15466</v>
       </c>
       <c r="U13" s="11">
-        <v>15466</v>
+        <v>26542</v>
       </c>
       <c r="V13" s="11">
-        <v>26542</v>
+        <v>20324</v>
       </c>
       <c r="W13" s="11">
-        <v>20324</v>
+        <v>15646</v>
       </c>
       <c r="X13" s="11">
-        <v>15646</v>
+        <v>15799</v>
       </c>
       <c r="Y13" s="11">
-        <v>15799</v>
-      </c>
-      <c r="Z13" s="11">
         <v>23277</v>
       </c>
+      <c r="Z13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1870,14 +1870,14 @@
       <c r="AJ13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>57</v>
+      <c r="AK13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>0</v>
       </c>
       <c r="AN13" s="11">
         <v>0</v>
@@ -1891,8 +1891,8 @@
       <c r="AQ13" s="11">
         <v>0</v>
       </c>
-      <c r="AR13" s="11">
-        <v>0</v>
+      <c r="AR13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS13" s="11" t="s">
         <v>57</v>
@@ -1996,8 +1996,8 @@
       <c r="Y14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>57</v>
+      <c r="Z14" s="13">
+        <v>0</v>
       </c>
       <c r="AA14" s="13">
         <v>0</v>
@@ -2029,8 +2029,8 @@
       <c r="AJ14" s="13">
         <v>0</v>
       </c>
-      <c r="AK14" s="13">
-        <v>0</v>
+      <c r="AK14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL14" s="13" t="s">
         <v>57</v>
@@ -2155,8 +2155,8 @@
       <c r="Y15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>57</v>
+      <c r="Z15" s="11">
+        <v>0</v>
       </c>
       <c r="AA15" s="11">
         <v>0</v>
@@ -2191,11 +2191,11 @@
       <c r="AK15" s="11">
         <v>0</v>
       </c>
-      <c r="AL15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>57</v>
+      <c r="AL15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>0</v>
       </c>
       <c r="AN15" s="11">
         <v>0</v>
@@ -2227,11 +2227,11 @@
       <c r="AW15" s="11">
         <v>0</v>
       </c>
-      <c r="AX15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="11" t="s">
-        <v>57</v>
+      <c r="AX15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>0</v>
       </c>
       <c r="AZ15" s="11">
         <v>0</v>
@@ -2252,35 +2252,35 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>24645</v>
+        <v>35467</v>
       </c>
       <c r="F16" s="13">
-        <v>35467</v>
+        <v>24258</v>
       </c>
       <c r="G16" s="13">
-        <v>24258</v>
+        <v>32720</v>
       </c>
       <c r="H16" s="13">
-        <v>32720</v>
+        <v>40004</v>
       </c>
       <c r="I16" s="13">
-        <v>40004</v>
+        <v>39666</v>
       </c>
       <c r="J16" s="13">
-        <v>39666</v>
+        <v>38529</v>
       </c>
       <c r="K16" s="13">
-        <v>38529</v>
+        <v>36530</v>
       </c>
       <c r="L16" s="13">
-        <v>36530</v>
+        <v>38870</v>
       </c>
       <c r="M16" s="13">
-        <v>38870</v>
-      </c>
-      <c r="N16" s="13">
         <v>45082</v>
       </c>
+      <c r="N16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="O16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2314,38 +2314,38 @@
       <c r="Y16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>57</v>
+      <c r="Z16" s="13">
+        <v>35613</v>
       </c>
       <c r="AA16" s="13">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AB16" s="13">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AC16" s="13">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AD16" s="13">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AE16" s="13">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AF16" s="13">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AG16" s="13">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AH16" s="13">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AI16" s="13">
-        <v>37107</v>
-      </c>
-      <c r="AJ16" s="13">
         <v>36577</v>
+      </c>
+      <c r="AJ16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK16" s="13" t="s">
         <v>57</v>
@@ -2503,62 +2503,62 @@
       <c r="AI17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>57</v>
+      <c r="AJ17" s="11">
+        <v>15555</v>
       </c>
       <c r="AK17" s="11">
-        <v>15555</v>
+        <v>15038</v>
       </c>
       <c r="AL17" s="11">
-        <v>15038</v>
+        <v>13094</v>
       </c>
       <c r="AM17" s="11">
-        <v>13094</v>
+        <v>16018</v>
       </c>
       <c r="AN17" s="11">
         <v>16018</v>
       </c>
       <c r="AO17" s="11">
-        <v>16018</v>
+        <v>8605</v>
       </c>
       <c r="AP17" s="11">
-        <v>8605</v>
+        <v>8188</v>
       </c>
       <c r="AQ17" s="11">
-        <v>8188</v>
+        <v>15293</v>
       </c>
       <c r="AR17" s="11">
-        <v>15293</v>
+        <v>16401</v>
       </c>
       <c r="AS17" s="11">
-        <v>16401</v>
+        <v>8406</v>
       </c>
       <c r="AT17" s="11">
-        <v>8406</v>
+        <v>12470</v>
       </c>
       <c r="AU17" s="11">
-        <v>12470</v>
+        <v>11489</v>
       </c>
       <c r="AV17" s="11">
-        <v>11489</v>
+        <v>11926</v>
       </c>
       <c r="AW17" s="11">
-        <v>11926</v>
+        <v>11410</v>
       </c>
       <c r="AX17" s="11">
-        <v>11410</v>
+        <v>12424</v>
       </c>
       <c r="AY17" s="11">
-        <v>12424</v>
+        <v>14241</v>
       </c>
       <c r="AZ17" s="11">
-        <v>14241</v>
+        <v>15425</v>
       </c>
       <c r="BA17" s="11">
-        <v>15425</v>
+        <v>10263</v>
       </c>
       <c r="BB17" s="11">
-        <v>10263</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2662,62 +2662,62 @@
       <c r="AI18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>57</v>
+      <c r="AJ18" s="13">
+        <v>11852</v>
       </c>
       <c r="AK18" s="13">
-        <v>11852</v>
+        <v>9202</v>
       </c>
       <c r="AL18" s="13">
-        <v>9202</v>
+        <v>13097</v>
       </c>
       <c r="AM18" s="13">
-        <v>13097</v>
+        <v>14878</v>
       </c>
       <c r="AN18" s="13">
         <v>14878</v>
       </c>
       <c r="AO18" s="13">
-        <v>14878</v>
+        <v>7513</v>
       </c>
       <c r="AP18" s="13">
-        <v>7513</v>
+        <v>10530</v>
       </c>
       <c r="AQ18" s="13">
-        <v>10530</v>
+        <v>6426</v>
       </c>
       <c r="AR18" s="13">
-        <v>6426</v>
+        <v>13291</v>
       </c>
       <c r="AS18" s="13">
-        <v>13291</v>
+        <v>7330</v>
       </c>
       <c r="AT18" s="13">
-        <v>7330</v>
+        <v>8752</v>
       </c>
       <c r="AU18" s="13">
-        <v>8752</v>
+        <v>8117</v>
       </c>
       <c r="AV18" s="13">
-        <v>8117</v>
+        <v>8725</v>
       </c>
       <c r="AW18" s="13">
-        <v>8725</v>
+        <v>7420</v>
       </c>
       <c r="AX18" s="13">
-        <v>7420</v>
+        <v>11241</v>
       </c>
       <c r="AY18" s="13">
-        <v>11241</v>
+        <v>9541</v>
       </c>
       <c r="AZ18" s="13">
-        <v>9541</v>
+        <v>13641</v>
       </c>
       <c r="BA18" s="13">
-        <v>13641</v>
+        <v>8359</v>
       </c>
       <c r="BB18" s="13">
-        <v>8359</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2821,62 +2821,62 @@
       <c r="AI19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ19" s="11" t="s">
-        <v>57</v>
+      <c r="AJ19" s="11">
+        <v>2407</v>
       </c>
       <c r="AK19" s="11">
-        <v>2407</v>
+        <v>3861</v>
       </c>
       <c r="AL19" s="11">
-        <v>3861</v>
+        <v>4573</v>
       </c>
       <c r="AM19" s="11">
-        <v>4573</v>
+        <v>4358</v>
       </c>
       <c r="AN19" s="11">
         <v>4358</v>
       </c>
       <c r="AO19" s="11">
-        <v>4358</v>
+        <v>4163</v>
       </c>
       <c r="AP19" s="11">
-        <v>4163</v>
+        <v>1906</v>
       </c>
       <c r="AQ19" s="11">
-        <v>1906</v>
+        <v>4930</v>
       </c>
       <c r="AR19" s="11">
-        <v>4930</v>
+        <v>7312</v>
       </c>
       <c r="AS19" s="11">
-        <v>7312</v>
+        <v>3900</v>
       </c>
       <c r="AT19" s="11">
-        <v>3900</v>
+        <v>6029</v>
       </c>
       <c r="AU19" s="11">
-        <v>6029</v>
+        <v>5956</v>
       </c>
       <c r="AV19" s="11">
-        <v>5956</v>
+        <v>5770</v>
       </c>
       <c r="AW19" s="11">
-        <v>5770</v>
+        <v>7382</v>
       </c>
       <c r="AX19" s="11">
-        <v>7382</v>
+        <v>6499</v>
       </c>
       <c r="AY19" s="11">
-        <v>6499</v>
+        <v>6964</v>
       </c>
       <c r="AZ19" s="11">
-        <v>6964</v>
+        <v>7817</v>
       </c>
       <c r="BA19" s="11">
-        <v>7817</v>
+        <v>5540</v>
       </c>
       <c r="BB19" s="11">
-        <v>5540</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2980,62 +2980,62 @@
       <c r="AI20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ20" s="13" t="s">
-        <v>57</v>
+      <c r="AJ20" s="13">
+        <v>999</v>
       </c>
       <c r="AK20" s="13">
-        <v>999</v>
+        <v>1110</v>
       </c>
       <c r="AL20" s="13">
-        <v>1110</v>
+        <v>2017</v>
       </c>
       <c r="AM20" s="13">
-        <v>2017</v>
+        <v>1862</v>
       </c>
       <c r="AN20" s="13">
         <v>1862</v>
       </c>
       <c r="AO20" s="13">
-        <v>1862</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="13">
         <v>0</v>
       </c>
       <c r="AQ20" s="13">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AR20" s="13">
-        <v>219</v>
+        <v>2676</v>
       </c>
       <c r="AS20" s="13">
-        <v>2676</v>
+        <v>2374</v>
       </c>
       <c r="AT20" s="13">
-        <v>2374</v>
+        <v>2808</v>
       </c>
       <c r="AU20" s="13">
-        <v>2808</v>
+        <v>881</v>
       </c>
       <c r="AV20" s="13">
-        <v>881</v>
+        <v>605</v>
       </c>
       <c r="AW20" s="13">
-        <v>605</v>
+        <v>1937</v>
       </c>
       <c r="AX20" s="13">
-        <v>1937</v>
+        <v>1047</v>
       </c>
       <c r="AY20" s="13">
-        <v>1047</v>
+        <v>1646</v>
       </c>
       <c r="AZ20" s="13">
-        <v>1646</v>
+        <v>2014</v>
       </c>
       <c r="BA20" s="13">
-        <v>2014</v>
+        <v>1467</v>
       </c>
       <c r="BB20" s="13">
-        <v>1467</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3139,26 +3139,26 @@
       <c r="AI21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ21" s="11" t="s">
-        <v>57</v>
+      <c r="AJ21" s="11">
+        <v>975</v>
       </c>
       <c r="AK21" s="11">
-        <v>975</v>
+        <v>454</v>
       </c>
       <c r="AL21" s="11">
-        <v>454</v>
+        <v>183</v>
       </c>
       <c r="AM21" s="11">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AN21" s="11">
         <v>169</v>
       </c>
       <c r="AO21" s="11">
-        <v>169</v>
-      </c>
-      <c r="AP21" s="11">
         <v>35</v>
+      </c>
+      <c r="AP21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>57</v>
@@ -3298,62 +3298,62 @@
       <c r="AI22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ22" s="13" t="s">
-        <v>57</v>
+      <c r="AJ22" s="13">
+        <v>88</v>
       </c>
       <c r="AK22" s="13">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AL22" s="13">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AM22" s="13">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AN22" s="13">
         <v>221</v>
       </c>
       <c r="AO22" s="13">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="AP22" s="13">
+        <v>193</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>269</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>196</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT22" s="13">
+        <v>80</v>
+      </c>
+      <c r="AU22" s="13">
+        <v>34</v>
+      </c>
+      <c r="AV22" s="13">
+        <v>87</v>
+      </c>
+      <c r="AW22" s="13">
+        <v>185</v>
+      </c>
+      <c r="AX22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="13">
+        <v>166</v>
+      </c>
+      <c r="AZ22" s="13">
+        <v>277</v>
+      </c>
+      <c r="BA22" s="13">
+        <v>91</v>
+      </c>
+      <c r="BB22" s="13">
         <v>113</v>
-      </c>
-      <c r="AQ22" s="13">
-        <v>193</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>269</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>196</v>
-      </c>
-      <c r="AT22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU22" s="13">
-        <v>80</v>
-      </c>
-      <c r="AV22" s="13">
-        <v>34</v>
-      </c>
-      <c r="AW22" s="13">
-        <v>87</v>
-      </c>
-      <c r="AX22" s="13">
-        <v>185</v>
-      </c>
-      <c r="AY22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="13">
-        <v>166</v>
-      </c>
-      <c r="BA22" s="13">
-        <v>277</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3457,17 +3457,17 @@
       <c r="AI23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK23" s="11">
+      <c r="AJ23" s="11">
         <v>885</v>
       </c>
-      <c r="AL23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM23" s="11">
+      <c r="AK23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL23" s="11">
         <v>616</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN23" s="11" t="s">
         <v>57</v>
@@ -3634,44 +3634,44 @@
       <c r="AO24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP24" s="13" t="s">
-        <v>57</v>
+      <c r="AP24" s="13">
+        <v>5</v>
       </c>
       <c r="AQ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="13">
         <v>5</v>
-      </c>
-      <c r="AR24" s="13">
-        <v>0</v>
       </c>
       <c r="AS24" s="13">
         <v>5</v>
       </c>
       <c r="AT24" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="13">
         <v>0</v>
       </c>
       <c r="AV24" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="13">
         <v>10</v>
-      </c>
-      <c r="AX24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ24" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3793,44 +3793,44 @@
       <c r="AO25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP25" s="11" t="s">
-        <v>57</v>
+      <c r="AP25" s="11">
+        <v>56</v>
       </c>
       <c r="AQ25" s="11">
         <v>56</v>
       </c>
       <c r="AR25" s="11">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AS25" s="11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AU25" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AV25" s="11">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AW25" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AX25" s="11">
+        <v>34</v>
+      </c>
+      <c r="AY25" s="11">
         <v>15</v>
       </c>
-      <c r="AY25" s="11">
-        <v>34</v>
-      </c>
       <c r="AZ25" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB25" s="11">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3958,8 +3958,8 @@
       <c r="AQ26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR26" s="13" t="s">
-        <v>57</v>
+      <c r="AR26" s="13">
+        <v>0</v>
       </c>
       <c r="AS26" s="13">
         <v>0</v>
@@ -3973,8 +3973,8 @@
       <c r="AV26" s="13">
         <v>0</v>
       </c>
-      <c r="AW26" s="13">
-        <v>0</v>
+      <c r="AW26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX26" s="13" t="s">
         <v>57</v>
@@ -3982,8 +3982,8 @@
       <c r="AY26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ26" s="13" t="s">
-        <v>57</v>
+      <c r="AZ26" s="13">
+        <v>0</v>
       </c>
       <c r="BA26" s="13">
         <v>0</v>
@@ -4111,44 +4111,44 @@
       <c r="AO27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP27" s="11" t="s">
+      <c r="AP27" s="11">
         <v>57</v>
       </c>
       <c r="AQ27" s="11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="11">
         <v>0</v>
       </c>
       <c r="AS27" s="11">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AT27" s="11">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AU27" s="11">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AV27" s="11">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AW27" s="11">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="AX27" s="11">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="AY27" s="11">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="AZ27" s="11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="BA27" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="BB27" s="11">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4270,8 +4270,8 @@
       <c r="AO28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP28" s="13" t="s">
-        <v>57</v>
+      <c r="AP28" s="13">
+        <v>0</v>
       </c>
       <c r="AQ28" s="13">
         <v>0</v>
@@ -4294,11 +4294,11 @@
       <c r="AW28" s="13">
         <v>0</v>
       </c>
-      <c r="AX28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="13" t="s">
-        <v>57</v>
+      <c r="AX28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>0</v>
       </c>
       <c r="AZ28" s="13">
         <v>0</v>
@@ -4432,8 +4432,8 @@
       <c r="AP29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ29" s="11" t="s">
-        <v>57</v>
+      <c r="AQ29" s="11">
+        <v>0</v>
       </c>
       <c r="AR29" s="11">
         <v>0</v>
@@ -4453,8 +4453,8 @@
       <c r="AW29" s="11">
         <v>0</v>
       </c>
-      <c r="AX29" s="11">
-        <v>0</v>
+      <c r="AX29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY29" s="11" t="s">
         <v>57</v>
@@ -4754,8 +4754,8 @@
       <c r="Y32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z32" s="15" t="s">
-        <v>57</v>
+      <c r="Z32" s="15">
+        <v>0</v>
       </c>
       <c r="AA32" s="15">
         <v>0</v>
@@ -4849,154 +4849,154 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>24645</v>
+        <v>35467</v>
       </c>
       <c r="F33" s="17">
-        <v>35467</v>
+        <v>24258</v>
       </c>
       <c r="G33" s="17">
-        <v>24258</v>
+        <v>32720</v>
       </c>
       <c r="H33" s="17">
-        <v>32720</v>
+        <v>40004</v>
       </c>
       <c r="I33" s="17">
-        <v>40004</v>
+        <v>39666</v>
       </c>
       <c r="J33" s="17">
-        <v>39666</v>
+        <v>38529</v>
       </c>
       <c r="K33" s="17">
-        <v>38529</v>
+        <v>36530</v>
       </c>
       <c r="L33" s="17">
-        <v>36530</v>
+        <v>38870</v>
       </c>
       <c r="M33" s="17">
-        <v>38870</v>
+        <v>45082</v>
       </c>
       <c r="N33" s="17">
-        <v>45082</v>
+        <v>36025</v>
       </c>
       <c r="O33" s="17">
-        <v>36025</v>
+        <v>39773</v>
       </c>
       <c r="P33" s="17">
-        <v>39773</v>
+        <v>38340</v>
       </c>
       <c r="Q33" s="17">
-        <v>38340</v>
+        <v>22302</v>
       </c>
       <c r="R33" s="17">
-        <v>22302</v>
+        <v>29129</v>
       </c>
       <c r="S33" s="17">
-        <v>29129</v>
+        <v>27148</v>
       </c>
       <c r="T33" s="17">
-        <v>27148</v>
+        <v>15466</v>
       </c>
       <c r="U33" s="17">
-        <v>15466</v>
+        <v>26542</v>
       </c>
       <c r="V33" s="17">
-        <v>26542</v>
+        <v>20324</v>
       </c>
       <c r="W33" s="17">
-        <v>20324</v>
+        <v>15646</v>
       </c>
       <c r="X33" s="17">
-        <v>15646</v>
+        <v>15799</v>
       </c>
       <c r="Y33" s="17">
-        <v>15799</v>
+        <v>23277</v>
       </c>
       <c r="Z33" s="17">
-        <v>23277</v>
+        <v>35613</v>
       </c>
       <c r="AA33" s="17">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AB33" s="17">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AC33" s="17">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AD33" s="17">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AE33" s="17">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AF33" s="17">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AG33" s="17">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AH33" s="17">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AI33" s="17">
-        <v>37107</v>
+        <v>36577</v>
       </c>
       <c r="AJ33" s="17">
-        <v>36577</v>
+        <v>37050</v>
       </c>
       <c r="AK33" s="17">
-        <v>37050</v>
+        <v>33224</v>
       </c>
       <c r="AL33" s="17">
-        <v>33224</v>
+        <v>37423</v>
       </c>
       <c r="AM33" s="17">
-        <v>37423</v>
+        <v>41080</v>
       </c>
       <c r="AN33" s="17">
         <v>41080</v>
       </c>
       <c r="AO33" s="17">
-        <v>41080</v>
+        <v>22181</v>
       </c>
       <c r="AP33" s="17">
-        <v>22181</v>
+        <v>24496</v>
       </c>
       <c r="AQ33" s="17">
-        <v>24496</v>
+        <v>29180</v>
       </c>
       <c r="AR33" s="17">
-        <v>29180</v>
+        <v>40876</v>
       </c>
       <c r="AS33" s="17">
-        <v>40876</v>
+        <v>24069</v>
       </c>
       <c r="AT33" s="17">
-        <v>24069</v>
+        <v>31237</v>
       </c>
       <c r="AU33" s="17">
-        <v>31237</v>
+        <v>27241</v>
       </c>
       <c r="AV33" s="17">
-        <v>27241</v>
+        <v>27313</v>
       </c>
       <c r="AW33" s="17">
-        <v>27313</v>
+        <v>28702</v>
       </c>
       <c r="AX33" s="17">
-        <v>28702</v>
+        <v>32457</v>
       </c>
       <c r="AY33" s="17">
-        <v>32457</v>
+        <v>38428</v>
       </c>
       <c r="AZ33" s="17">
-        <v>38428</v>
+        <v>44771</v>
       </c>
       <c r="BA33" s="17">
-        <v>44771</v>
+        <v>27536</v>
       </c>
       <c r="BB33" s="17">
-        <v>27536</v>
+        <v>29803</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -5504,8 +5504,8 @@
       <c r="Y40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z40" s="11" t="s">
-        <v>57</v>
+      <c r="Z40" s="11">
+        <v>0</v>
       </c>
       <c r="AA40" s="11">
         <v>0</v>
@@ -5534,8 +5534,8 @@
       <c r="AI40" s="11">
         <v>0</v>
       </c>
-      <c r="AJ40" s="11">
-        <v>0</v>
+      <c r="AJ40" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK40" s="11" t="s">
         <v>57</v>
@@ -5693,62 +5693,62 @@
       <c r="AI41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ41" s="13" t="s">
-        <v>57</v>
+      <c r="AJ41" s="13">
+        <v>3503</v>
       </c>
       <c r="AK41" s="13">
-        <v>3503</v>
+        <v>3498</v>
       </c>
       <c r="AL41" s="13">
-        <v>3498</v>
+        <v>4382</v>
       </c>
       <c r="AM41" s="13">
-        <v>4382</v>
+        <v>3904</v>
       </c>
       <c r="AN41" s="13">
         <v>3904</v>
       </c>
       <c r="AO41" s="13">
-        <v>3904</v>
+        <v>1164</v>
       </c>
       <c r="AP41" s="13">
-        <v>1164</v>
+        <v>3511</v>
       </c>
       <c r="AQ41" s="13">
-        <v>3511</v>
+        <v>2528</v>
       </c>
       <c r="AR41" s="13">
-        <v>2528</v>
+        <v>893</v>
       </c>
       <c r="AS41" s="13">
-        <v>893</v>
+        <v>1566</v>
       </c>
       <c r="AT41" s="13">
-        <v>1566</v>
+        <v>917</v>
       </c>
       <c r="AU41" s="13">
-        <v>917</v>
+        <v>479</v>
       </c>
       <c r="AV41" s="13">
-        <v>479</v>
+        <v>61</v>
       </c>
       <c r="AW41" s="13">
-        <v>61</v>
+        <v>-26</v>
       </c>
       <c r="AX41" s="13">
-        <v>-26</v>
+        <v>812</v>
       </c>
       <c r="AY41" s="13">
-        <v>812</v>
+        <v>5918</v>
       </c>
       <c r="AZ41" s="13">
-        <v>5918</v>
+        <v>5446</v>
       </c>
       <c r="BA41" s="13">
-        <v>5446</v>
+        <v>1888</v>
       </c>
       <c r="BB41" s="13">
-        <v>1888</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5786,45 +5786,45 @@
       <c r="M42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>57</v>
+      <c r="N42" s="11">
+        <v>35538</v>
       </c>
       <c r="O42" s="11">
-        <v>35538</v>
+        <v>39096</v>
       </c>
       <c r="P42" s="11">
-        <v>39096</v>
+        <v>42949</v>
       </c>
       <c r="Q42" s="11">
-        <v>42949</v>
+        <v>20862</v>
       </c>
       <c r="R42" s="11">
-        <v>20862</v>
+        <v>30558</v>
       </c>
       <c r="S42" s="11">
-        <v>30558</v>
+        <v>27093</v>
       </c>
       <c r="T42" s="11">
-        <v>27093</v>
+        <v>14772</v>
       </c>
       <c r="U42" s="11">
-        <v>14772</v>
+        <v>26331</v>
       </c>
       <c r="V42" s="11">
-        <v>26331</v>
+        <v>21657</v>
       </c>
       <c r="W42" s="11">
-        <v>21657</v>
+        <v>15214</v>
       </c>
       <c r="X42" s="11">
-        <v>15214</v>
+        <v>14607</v>
       </c>
       <c r="Y42" s="11">
-        <v>14607</v>
-      </c>
-      <c r="Z42" s="11">
         <v>22426</v>
       </c>
+      <c r="Z42" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA42" s="11" t="s">
         <v>57</v>
       </c>
@@ -5855,14 +5855,14 @@
       <c r="AJ42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="11" t="s">
-        <v>57</v>
+      <c r="AK42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM42" s="11">
+        <v>0</v>
       </c>
       <c r="AN42" s="11">
         <v>0</v>
@@ -5876,8 +5876,8 @@
       <c r="AQ42" s="11">
         <v>0</v>
       </c>
-      <c r="AR42" s="11">
-        <v>0</v>
+      <c r="AR42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS42" s="11" t="s">
         <v>57</v>
@@ -5981,8 +5981,8 @@
       <c r="Y43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z43" s="13" t="s">
-        <v>57</v>
+      <c r="Z43" s="13">
+        <v>0</v>
       </c>
       <c r="AA43" s="13">
         <v>0</v>
@@ -6014,8 +6014,8 @@
       <c r="AJ43" s="13">
         <v>0</v>
       </c>
-      <c r="AK43" s="13">
-        <v>0</v>
+      <c r="AK43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL43" s="13" t="s">
         <v>57</v>
@@ -6140,23 +6140,23 @@
       <c r="Y44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z44" s="11" t="s">
-        <v>57</v>
+      <c r="Z44" s="11">
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>0</v>
+        <v>7125</v>
       </c>
       <c r="AB44" s="11">
-        <v>7125</v>
+        <v>1217</v>
       </c>
       <c r="AC44" s="11">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="11">
-        <v>0</v>
+        <v>3814</v>
       </c>
       <c r="AE44" s="11">
-        <v>3814</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="11">
         <v>0</v>
@@ -6174,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="AK44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="11">
         <v>1440</v>
       </c>
-      <c r="AM44" s="11" t="s">
-        <v>57</v>
+      <c r="AL44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM44" s="11">
+        <v>0</v>
       </c>
       <c r="AN44" s="11">
         <v>0</v>
@@ -6189,13 +6189,13 @@
         <v>0</v>
       </c>
       <c r="AP44" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AQ44" s="11">
-        <v>-10</v>
+        <v>4842</v>
       </c>
       <c r="AR44" s="11">
-        <v>4842</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="11">
         <v>0</v>
@@ -6212,11 +6212,11 @@
       <c r="AW44" s="11">
         <v>0</v>
       </c>
-      <c r="AX44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="11" t="s">
-        <v>57</v>
+      <c r="AX44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY44" s="11">
+        <v>0</v>
       </c>
       <c r="AZ44" s="11">
         <v>0</v>
@@ -6237,35 +6237,35 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>27499</v>
+        <v>33434</v>
       </c>
       <c r="F45" s="13">
-        <v>33434</v>
+        <v>23787</v>
       </c>
       <c r="G45" s="13">
-        <v>23787</v>
+        <v>31442</v>
       </c>
       <c r="H45" s="13">
-        <v>31442</v>
+        <v>38867</v>
       </c>
       <c r="I45" s="13">
-        <v>38867</v>
+        <v>38679</v>
       </c>
       <c r="J45" s="13">
-        <v>38679</v>
+        <v>38077</v>
       </c>
       <c r="K45" s="13">
-        <v>38077</v>
+        <v>37129</v>
       </c>
       <c r="L45" s="13">
-        <v>37129</v>
+        <v>37643</v>
       </c>
       <c r="M45" s="13">
-        <v>37643</v>
-      </c>
-      <c r="N45" s="13">
         <v>46159</v>
       </c>
+      <c r="N45" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="O45" s="13" t="s">
         <v>57</v>
       </c>
@@ -6299,38 +6299,38 @@
       <c r="Y45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z45" s="13" t="s">
-        <v>57</v>
+      <c r="Z45" s="13">
+        <v>35582</v>
       </c>
       <c r="AA45" s="13">
-        <v>35582</v>
+        <v>35808</v>
       </c>
       <c r="AB45" s="13">
-        <v>35808</v>
+        <v>40442</v>
       </c>
       <c r="AC45" s="13">
-        <v>40442</v>
+        <v>34098</v>
       </c>
       <c r="AD45" s="13">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AE45" s="13">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AF45" s="13">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AG45" s="13">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AH45" s="13">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AI45" s="13">
-        <v>38172</v>
-      </c>
-      <c r="AJ45" s="13">
         <v>35675</v>
+      </c>
+      <c r="AJ45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK45" s="13" t="s">
         <v>57</v>
@@ -6488,62 +6488,62 @@
       <c r="AI46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ46" s="11" t="s">
-        <v>57</v>
+      <c r="AJ46" s="11">
+        <v>14054</v>
       </c>
       <c r="AK46" s="11">
-        <v>14054</v>
+        <v>13250</v>
       </c>
       <c r="AL46" s="11">
-        <v>13250</v>
+        <v>15306</v>
       </c>
       <c r="AM46" s="11">
-        <v>15306</v>
+        <v>15588</v>
       </c>
       <c r="AN46" s="11">
         <v>15588</v>
       </c>
       <c r="AO46" s="11">
-        <v>15588</v>
+        <v>8156</v>
       </c>
       <c r="AP46" s="11">
-        <v>8156</v>
+        <v>7977</v>
       </c>
       <c r="AQ46" s="11">
-        <v>7977</v>
+        <v>14780</v>
       </c>
       <c r="AR46" s="11">
-        <v>14780</v>
+        <v>17009</v>
       </c>
       <c r="AS46" s="11">
-        <v>17009</v>
+        <v>8622</v>
       </c>
       <c r="AT46" s="11">
-        <v>8622</v>
+        <v>11765</v>
       </c>
       <c r="AU46" s="11">
-        <v>11765</v>
+        <v>11860</v>
       </c>
       <c r="AV46" s="11">
-        <v>11860</v>
+        <v>12392</v>
       </c>
       <c r="AW46" s="11">
-        <v>12392</v>
+        <v>11711</v>
       </c>
       <c r="AX46" s="11">
-        <v>11711</v>
+        <v>12482</v>
       </c>
       <c r="AY46" s="11">
-        <v>12482</v>
+        <v>12883</v>
       </c>
       <c r="AZ46" s="11">
-        <v>12883</v>
+        <v>15123</v>
       </c>
       <c r="BA46" s="11">
-        <v>15123</v>
+        <v>9574</v>
       </c>
       <c r="BB46" s="11">
-        <v>9574</v>
+        <v>9772</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6647,62 +6647,62 @@
       <c r="AI47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ47" s="13" t="s">
-        <v>57</v>
+      <c r="AJ47" s="13">
+        <v>11836</v>
       </c>
       <c r="AK47" s="13">
-        <v>11836</v>
+        <v>8307</v>
       </c>
       <c r="AL47" s="13">
-        <v>8307</v>
+        <v>13787</v>
       </c>
       <c r="AM47" s="13">
-        <v>13787</v>
+        <v>14665</v>
       </c>
       <c r="AN47" s="13">
         <v>14665</v>
       </c>
       <c r="AO47" s="13">
-        <v>14665</v>
+        <v>7533</v>
       </c>
       <c r="AP47" s="13">
-        <v>7533</v>
+        <v>10235</v>
       </c>
       <c r="AQ47" s="13">
-        <v>10235</v>
+        <v>6683</v>
       </c>
       <c r="AR47" s="13">
-        <v>6683</v>
+        <v>13633</v>
       </c>
       <c r="AS47" s="13">
-        <v>13633</v>
+        <v>6856</v>
       </c>
       <c r="AT47" s="13">
-        <v>6856</v>
+        <v>8501</v>
       </c>
       <c r="AU47" s="13">
-        <v>8501</v>
+        <v>8564</v>
       </c>
       <c r="AV47" s="13">
-        <v>8564</v>
+        <v>8804</v>
       </c>
       <c r="AW47" s="13">
-        <v>8804</v>
+        <v>7523</v>
       </c>
       <c r="AX47" s="13">
-        <v>7523</v>
+        <v>11394</v>
       </c>
       <c r="AY47" s="13">
-        <v>11394</v>
+        <v>9012</v>
       </c>
       <c r="AZ47" s="13">
-        <v>9012</v>
+        <v>13413</v>
       </c>
       <c r="BA47" s="13">
-        <v>13413</v>
+        <v>8356</v>
       </c>
       <c r="BB47" s="13">
-        <v>8356</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6806,62 +6806,62 @@
       <c r="AI48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ48" s="11" t="s">
-        <v>57</v>
+      <c r="AJ48" s="11">
+        <v>4475</v>
       </c>
       <c r="AK48" s="11">
-        <v>4475</v>
+        <v>3738</v>
       </c>
       <c r="AL48" s="11">
-        <v>3738</v>
+        <v>4477</v>
       </c>
       <c r="AM48" s="11">
-        <v>4477</v>
+        <v>4282</v>
       </c>
       <c r="AN48" s="11">
         <v>4282</v>
       </c>
       <c r="AO48" s="11">
-        <v>4282</v>
+        <v>3633</v>
       </c>
       <c r="AP48" s="11">
-        <v>3633</v>
+        <v>1823</v>
       </c>
       <c r="AQ48" s="11">
-        <v>1823</v>
+        <v>4542</v>
       </c>
       <c r="AR48" s="11">
-        <v>4542</v>
+        <v>6752</v>
       </c>
       <c r="AS48" s="11">
-        <v>6752</v>
+        <v>3348</v>
       </c>
       <c r="AT48" s="11">
-        <v>3348</v>
+        <v>5615</v>
       </c>
       <c r="AU48" s="11">
-        <v>5615</v>
+        <v>5701</v>
       </c>
       <c r="AV48" s="11">
-        <v>5701</v>
+        <v>6331</v>
       </c>
       <c r="AW48" s="11">
-        <v>6331</v>
+        <v>6936</v>
       </c>
       <c r="AX48" s="11">
-        <v>6936</v>
+        <v>6259</v>
       </c>
       <c r="AY48" s="11">
-        <v>6259</v>
+        <v>7135</v>
       </c>
       <c r="AZ48" s="11">
-        <v>7135</v>
+        <v>8091</v>
       </c>
       <c r="BA48" s="11">
-        <v>8091</v>
+        <v>5360</v>
       </c>
       <c r="BB48" s="11">
-        <v>5360</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6965,62 +6965,62 @@
       <c r="AI49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ49" s="13" t="s">
-        <v>57</v>
+      <c r="AJ49" s="13">
+        <v>1023</v>
       </c>
       <c r="AK49" s="13">
-        <v>1023</v>
+        <v>1079</v>
       </c>
       <c r="AL49" s="13">
-        <v>1079</v>
+        <v>2031</v>
       </c>
       <c r="AM49" s="13">
-        <v>2031</v>
+        <v>1822</v>
       </c>
       <c r="AN49" s="13">
         <v>1822</v>
       </c>
       <c r="AO49" s="13">
-        <v>1822</v>
+        <v>33</v>
       </c>
       <c r="AP49" s="13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="13">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AR49" s="13">
-        <v>217</v>
+        <v>2438</v>
       </c>
       <c r="AS49" s="13">
-        <v>2438</v>
+        <v>2301</v>
       </c>
       <c r="AT49" s="13">
-        <v>2301</v>
+        <v>2803</v>
       </c>
       <c r="AU49" s="13">
-        <v>2803</v>
+        <v>1099</v>
       </c>
       <c r="AV49" s="13">
-        <v>1099</v>
+        <v>622</v>
       </c>
       <c r="AW49" s="13">
-        <v>622</v>
+        <v>1956</v>
       </c>
       <c r="AX49" s="13">
-        <v>1956</v>
+        <v>1034</v>
       </c>
       <c r="AY49" s="13">
-        <v>1034</v>
+        <v>1583</v>
       </c>
       <c r="AZ49" s="13">
-        <v>1583</v>
+        <v>1933</v>
       </c>
       <c r="BA49" s="13">
-        <v>1933</v>
+        <v>1493</v>
       </c>
       <c r="BB49" s="13">
-        <v>1493</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7124,26 +7124,26 @@
       <c r="AI50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ50" s="11" t="s">
-        <v>57</v>
+      <c r="AJ50" s="11">
+        <v>549</v>
       </c>
       <c r="AK50" s="11">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="AL50" s="11">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AM50" s="11">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AN50" s="11">
         <v>172</v>
       </c>
       <c r="AO50" s="11">
-        <v>172</v>
-      </c>
-      <c r="AP50" s="11">
         <v>41</v>
+      </c>
+      <c r="AP50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ50" s="11" t="s">
         <v>57</v>
@@ -7283,62 +7283,62 @@
       <c r="AI51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ51" s="13" t="s">
-        <v>57</v>
+      <c r="AJ51" s="13">
+        <v>93</v>
       </c>
       <c r="AK51" s="13">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AL51" s="13">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AM51" s="13">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AN51" s="13">
         <v>170</v>
       </c>
       <c r="AO51" s="13">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AP51" s="13">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="AQ51" s="13">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AR51" s="13">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AS51" s="13">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="AT51" s="13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AU51" s="13">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AV51" s="13">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AW51" s="13">
+        <v>122</v>
+      </c>
+      <c r="AX51" s="13">
+        <v>120</v>
+      </c>
+      <c r="AY51" s="13">
+        <v>132</v>
+      </c>
+      <c r="AZ51" s="13">
+        <v>212</v>
+      </c>
+      <c r="BA51" s="13">
+        <v>77</v>
+      </c>
+      <c r="BB51" s="13">
         <v>90</v>
-      </c>
-      <c r="AX51" s="13">
-        <v>122</v>
-      </c>
-      <c r="AY51" s="13">
-        <v>120</v>
-      </c>
-      <c r="AZ51" s="13">
-        <v>132</v>
-      </c>
-      <c r="BA51" s="13">
-        <v>212</v>
-      </c>
-      <c r="BB51" s="13">
-        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7442,17 +7442,17 @@
       <c r="AI52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK52" s="11">
+      <c r="AJ52" s="11">
         <v>853</v>
       </c>
-      <c r="AL52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM52" s="11">
+      <c r="AK52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL52" s="11">
         <v>653</v>
+      </c>
+      <c r="AM52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN52" s="11" t="s">
         <v>57</v>
@@ -7619,44 +7619,44 @@
       <c r="AO53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP53" s="13" t="s">
-        <v>57</v>
+      <c r="AP53" s="13">
+        <v>5</v>
       </c>
       <c r="AQ53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="13">
         <v>5</v>
-      </c>
-      <c r="AR53" s="13">
-        <v>0</v>
       </c>
       <c r="AS53" s="13">
         <v>5</v>
       </c>
       <c r="AT53" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="13">
         <v>0</v>
       </c>
       <c r="AV53" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="13">
         <v>10</v>
-      </c>
-      <c r="AX53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ53" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7778,44 +7778,44 @@
       <c r="AO54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP54" s="11" t="s">
-        <v>57</v>
+      <c r="AP54" s="11">
+        <v>56</v>
       </c>
       <c r="AQ54" s="11">
         <v>56</v>
       </c>
       <c r="AR54" s="11">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AS54" s="11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AU54" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AV54" s="11">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AW54" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AX54" s="11">
+        <v>34</v>
+      </c>
+      <c r="AY54" s="11">
         <v>15</v>
       </c>
-      <c r="AY54" s="11">
-        <v>34</v>
-      </c>
       <c r="AZ54" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB54" s="11">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7943,8 +7943,8 @@
       <c r="AQ55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR55" s="13" t="s">
-        <v>57</v>
+      <c r="AR55" s="13">
+        <v>0</v>
       </c>
       <c r="AS55" s="13">
         <v>0</v>
@@ -7958,8 +7958,8 @@
       <c r="AV55" s="13">
         <v>0</v>
       </c>
-      <c r="AW55" s="13">
-        <v>0</v>
+      <c r="AW55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX55" s="13" t="s">
         <v>57</v>
@@ -7967,8 +7967,8 @@
       <c r="AY55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ55" s="13" t="s">
-        <v>57</v>
+      <c r="AZ55" s="13">
+        <v>0</v>
       </c>
       <c r="BA55" s="13">
         <v>0</v>
@@ -8096,44 +8096,44 @@
       <c r="AO56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP56" s="11" t="s">
+      <c r="AP56" s="11">
         <v>57</v>
       </c>
       <c r="AQ56" s="11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="11">
         <v>0</v>
       </c>
       <c r="AS56" s="11">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AT56" s="11">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AU56" s="11">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AV56" s="11">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AW56" s="11">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AX56" s="11">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="AY56" s="11">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AZ56" s="11">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="BA56" s="11">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="BB56" s="11">
-        <v>345</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8255,8 +8255,8 @@
       <c r="AO57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP57" s="13" t="s">
-        <v>57</v>
+      <c r="AP57" s="13">
+        <v>0</v>
       </c>
       <c r="AQ57" s="13">
         <v>0</v>
@@ -8279,11 +8279,11 @@
       <c r="AW57" s="13">
         <v>0</v>
       </c>
-      <c r="AX57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY57" s="13" t="s">
-        <v>57</v>
+      <c r="AX57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY57" s="13">
+        <v>0</v>
       </c>
       <c r="AZ57" s="13">
         <v>0</v>
@@ -8417,8 +8417,8 @@
       <c r="AP58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ58" s="11" t="s">
-        <v>57</v>
+      <c r="AQ58" s="11">
+        <v>0</v>
       </c>
       <c r="AR58" s="11">
         <v>0</v>
@@ -8438,8 +8438,8 @@
       <c r="AW58" s="11">
         <v>0</v>
       </c>
-      <c r="AX58" s="11">
-        <v>0</v>
+      <c r="AX58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY58" s="11" t="s">
         <v>57</v>
@@ -8621,14 +8621,14 @@
       <c r="AL60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM60" s="11" t="s">
-        <v>57</v>
+      <c r="AM60" s="11">
+        <v>0</v>
       </c>
       <c r="AN60" s="11">
         <v>0</v>
       </c>
-      <c r="AO60" s="11">
-        <v>0</v>
+      <c r="AO60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP60" s="11" t="s">
         <v>57</v>
@@ -8739,8 +8739,8 @@
       <c r="Y61" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z61" s="15" t="s">
-        <v>57</v>
+      <c r="Z61" s="15">
+        <v>0</v>
       </c>
       <c r="AA61" s="15">
         <v>0</v>
@@ -8953,8 +8953,8 @@
       <c r="Y63" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z63" s="17" t="s">
-        <v>57</v>
+      <c r="Z63" s="17">
+        <v>0</v>
       </c>
       <c r="AA63" s="17">
         <v>0</v>
@@ -9048,154 +9048,154 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>27499</v>
+        <v>33434</v>
       </c>
       <c r="F64" s="15">
-        <v>33434</v>
+        <v>23787</v>
       </c>
       <c r="G64" s="15">
-        <v>23787</v>
+        <v>31442</v>
       </c>
       <c r="H64" s="15">
-        <v>31442</v>
+        <v>38867</v>
       </c>
       <c r="I64" s="15">
-        <v>38867</v>
+        <v>38679</v>
       </c>
       <c r="J64" s="15">
-        <v>38679</v>
+        <v>38077</v>
       </c>
       <c r="K64" s="15">
-        <v>38077</v>
+        <v>37129</v>
       </c>
       <c r="L64" s="15">
-        <v>37129</v>
+        <v>37643</v>
       </c>
       <c r="M64" s="15">
-        <v>37643</v>
+        <v>46159</v>
       </c>
       <c r="N64" s="15">
-        <v>46159</v>
+        <v>35538</v>
       </c>
       <c r="O64" s="15">
-        <v>35538</v>
+        <v>39096</v>
       </c>
       <c r="P64" s="15">
-        <v>39096</v>
+        <v>42949</v>
       </c>
       <c r="Q64" s="15">
-        <v>42949</v>
+        <v>20862</v>
       </c>
       <c r="R64" s="15">
-        <v>20862</v>
+        <v>30558</v>
       </c>
       <c r="S64" s="15">
-        <v>30558</v>
+        <v>27093</v>
       </c>
       <c r="T64" s="15">
-        <v>27093</v>
+        <v>14772</v>
       </c>
       <c r="U64" s="15">
-        <v>14772</v>
+        <v>26331</v>
       </c>
       <c r="V64" s="15">
-        <v>26331</v>
+        <v>21657</v>
       </c>
       <c r="W64" s="15">
-        <v>21657</v>
+        <v>15214</v>
       </c>
       <c r="X64" s="15">
-        <v>15214</v>
+        <v>14607</v>
       </c>
       <c r="Y64" s="15">
-        <v>14607</v>
+        <v>22426</v>
       </c>
       <c r="Z64" s="15">
-        <v>22426</v>
+        <v>35582</v>
       </c>
       <c r="AA64" s="15">
-        <v>35582</v>
+        <v>42933</v>
       </c>
       <c r="AB64" s="15">
-        <v>42933</v>
+        <v>41659</v>
       </c>
       <c r="AC64" s="15">
-        <v>41659</v>
+        <v>34098</v>
       </c>
       <c r="AD64" s="15">
-        <v>34098</v>
+        <v>41400</v>
       </c>
       <c r="AE64" s="15">
-        <v>41400</v>
+        <v>42505</v>
       </c>
       <c r="AF64" s="15">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AG64" s="15">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AH64" s="15">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AI64" s="15">
-        <v>38172</v>
+        <v>35675</v>
       </c>
       <c r="AJ64" s="15">
-        <v>35675</v>
+        <v>36386</v>
       </c>
       <c r="AK64" s="15">
-        <v>36386</v>
+        <v>31876</v>
       </c>
       <c r="AL64" s="15">
-        <v>31876</v>
+        <v>40902</v>
       </c>
       <c r="AM64" s="15">
-        <v>40902</v>
+        <v>40603</v>
       </c>
       <c r="AN64" s="15">
         <v>40603</v>
       </c>
       <c r="AO64" s="15">
-        <v>40603</v>
+        <v>20703</v>
       </c>
       <c r="AP64" s="15">
-        <v>20703</v>
+        <v>23906</v>
       </c>
       <c r="AQ64" s="15">
-        <v>23906</v>
+        <v>33880</v>
       </c>
       <c r="AR64" s="15">
-        <v>33880</v>
+        <v>40982</v>
       </c>
       <c r="AS64" s="15">
-        <v>40982</v>
+        <v>23377</v>
       </c>
       <c r="AT64" s="15">
-        <v>23377</v>
+        <v>30014</v>
       </c>
       <c r="AU64" s="15">
-        <v>30014</v>
+        <v>28020</v>
       </c>
       <c r="AV64" s="15">
-        <v>28020</v>
+        <v>28500</v>
       </c>
       <c r="AW64" s="15">
-        <v>28500</v>
+        <v>28517</v>
       </c>
       <c r="AX64" s="15">
-        <v>28517</v>
+        <v>32178</v>
       </c>
       <c r="AY64" s="15">
-        <v>32178</v>
+        <v>36784</v>
       </c>
       <c r="AZ64" s="15">
-        <v>36784</v>
+        <v>44260</v>
       </c>
       <c r="BA64" s="15">
-        <v>44260</v>
+        <v>27099</v>
       </c>
       <c r="BB64" s="15">
-        <v>27099</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -9703,11 +9703,11 @@
       <c r="Y71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z71" s="11" t="s">
-        <v>57</v>
+      <c r="Z71" s="11">
+        <v>8</v>
       </c>
       <c r="AA71" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="11">
         <v>0</v>
@@ -9733,8 +9733,8 @@
       <c r="AI71" s="11">
         <v>0</v>
       </c>
-      <c r="AJ71" s="11">
-        <v>0</v>
+      <c r="AJ71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AK71" s="11" t="s">
         <v>57</v>
@@ -9892,62 +9892,62 @@
       <c r="AI72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ72" s="13" t="s">
-        <v>57</v>
+      <c r="AJ72" s="13">
+        <v>184112</v>
       </c>
       <c r="AK72" s="13">
-        <v>184112</v>
+        <v>100888</v>
       </c>
       <c r="AL72" s="13">
-        <v>100888</v>
+        <v>169113</v>
       </c>
       <c r="AM72" s="13">
-        <v>169113</v>
+        <v>141870</v>
       </c>
       <c r="AN72" s="13">
         <v>141870</v>
       </c>
       <c r="AO72" s="13">
-        <v>141870</v>
+        <v>29874</v>
       </c>
       <c r="AP72" s="13">
-        <v>29874</v>
+        <v>135144</v>
       </c>
       <c r="AQ72" s="13">
-        <v>135144</v>
+        <v>97532</v>
       </c>
       <c r="AR72" s="13">
-        <v>97532</v>
+        <v>20143</v>
       </c>
       <c r="AS72" s="13">
-        <v>20143</v>
+        <v>85602</v>
       </c>
       <c r="AT72" s="13">
-        <v>85602</v>
+        <v>30909</v>
       </c>
       <c r="AU72" s="13">
-        <v>30909</v>
+        <v>15096</v>
       </c>
       <c r="AV72" s="13">
-        <v>15096</v>
+        <v>6251</v>
       </c>
       <c r="AW72" s="13">
-        <v>6251</v>
+        <v>-2714</v>
       </c>
       <c r="AX72" s="13">
-        <v>-2714</v>
+        <v>48207</v>
       </c>
       <c r="AY72" s="13">
-        <v>48207</v>
+        <v>205238</v>
       </c>
       <c r="AZ72" s="13">
-        <v>205238</v>
+        <v>212048</v>
       </c>
       <c r="BA72" s="13">
-        <v>212048</v>
+        <v>154349</v>
       </c>
       <c r="BB72" s="13">
-        <v>154349</v>
+        <v>214049</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9985,45 +9985,45 @@
       <c r="M73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="N73" s="11" t="s">
-        <v>57</v>
+      <c r="N73" s="11">
+        <v>2580800</v>
       </c>
       <c r="O73" s="11">
-        <v>2580800</v>
+        <v>3015717</v>
       </c>
       <c r="P73" s="11">
-        <v>3015717</v>
+        <v>3354919</v>
       </c>
       <c r="Q73" s="11">
-        <v>3354919</v>
+        <v>1650262</v>
       </c>
       <c r="R73" s="11">
-        <v>1650262</v>
+        <v>2463129</v>
       </c>
       <c r="S73" s="11">
-        <v>2463129</v>
+        <v>2076351</v>
       </c>
       <c r="T73" s="11">
-        <v>2076351</v>
+        <v>1211904</v>
       </c>
       <c r="U73" s="11">
-        <v>1211904</v>
+        <v>2310408</v>
       </c>
       <c r="V73" s="11">
-        <v>2310408</v>
+        <v>1897397</v>
       </c>
       <c r="W73" s="11">
-        <v>1897397</v>
+        <v>1496501</v>
       </c>
       <c r="X73" s="11">
-        <v>1496501</v>
+        <v>1469337</v>
       </c>
       <c r="Y73" s="11">
-        <v>1469337</v>
-      </c>
-      <c r="Z73" s="11">
         <v>2214383</v>
       </c>
+      <c r="Z73" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA73" s="11" t="s">
         <v>57</v>
       </c>
@@ -10054,14 +10054,14 @@
       <c r="AJ73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK73" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM73" s="11" t="s">
-        <v>57</v>
+      <c r="AK73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM73" s="11">
+        <v>0</v>
       </c>
       <c r="AN73" s="11">
         <v>0</v>
@@ -10075,8 +10075,8 @@
       <c r="AQ73" s="11">
         <v>0</v>
       </c>
-      <c r="AR73" s="11">
-        <v>0</v>
+      <c r="AR73" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS73" s="11" t="s">
         <v>57</v>
@@ -10180,8 +10180,8 @@
       <c r="Y74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z74" s="13" t="s">
-        <v>57</v>
+      <c r="Z74" s="13">
+        <v>0</v>
       </c>
       <c r="AA74" s="13">
         <v>0</v>
@@ -10213,8 +10213,8 @@
       <c r="AJ74" s="13">
         <v>0</v>
       </c>
-      <c r="AK74" s="13">
-        <v>0</v>
+      <c r="AK74" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AL74" s="13" t="s">
         <v>57</v>
@@ -10339,23 +10339,23 @@
       <c r="Y75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z75" s="11" t="s">
-        <v>57</v>
+      <c r="Z75" s="11">
+        <v>0</v>
       </c>
       <c r="AA75" s="11">
-        <v>0</v>
+        <v>213749</v>
       </c>
       <c r="AB75" s="11">
-        <v>213749</v>
+        <v>28280</v>
       </c>
       <c r="AC75" s="11">
-        <v>28280</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="11">
-        <v>0</v>
+        <v>115649</v>
       </c>
       <c r="AE75" s="11">
-        <v>115649</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="11">
         <v>0</v>
@@ -10373,13 +10373,13 @@
         <v>0</v>
       </c>
       <c r="AK75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL75" s="11">
         <v>43386</v>
       </c>
-      <c r="AM75" s="11" t="s">
-        <v>57</v>
+      <c r="AL75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM75" s="11">
+        <v>0</v>
       </c>
       <c r="AN75" s="11">
         <v>0</v>
@@ -10388,13 +10388,13 @@
         <v>0</v>
       </c>
       <c r="AP75" s="11">
-        <v>0</v>
+        <v>-262</v>
       </c>
       <c r="AQ75" s="11">
-        <v>-262</v>
+        <v>339266</v>
       </c>
       <c r="AR75" s="11">
-        <v>339266</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="11">
         <v>0</v>
@@ -10411,11 +10411,11 @@
       <c r="AW75" s="11">
         <v>0</v>
       </c>
-      <c r="AX75" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY75" s="11" t="s">
-        <v>57</v>
+      <c r="AX75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY75" s="11">
+        <v>0</v>
       </c>
       <c r="AZ75" s="11">
         <v>0</v>
@@ -10436,35 +10436,35 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>1827912</v>
+        <v>2300370</v>
       </c>
       <c r="F76" s="13">
-        <v>2300370</v>
+        <v>1689861</v>
       </c>
       <c r="G76" s="13">
-        <v>1689861</v>
+        <v>2354969</v>
       </c>
       <c r="H76" s="13">
-        <v>2354969</v>
+        <v>3023125</v>
       </c>
       <c r="I76" s="13">
-        <v>3023125</v>
+        <v>2972844</v>
       </c>
       <c r="J76" s="13">
-        <v>2972844</v>
+        <v>2871834</v>
       </c>
       <c r="K76" s="13">
-        <v>2871834</v>
+        <v>2747533</v>
       </c>
       <c r="L76" s="13">
-        <v>2747533</v>
+        <v>2743082</v>
       </c>
       <c r="M76" s="13">
-        <v>2743082</v>
-      </c>
-      <c r="N76" s="13">
         <v>3206019</v>
       </c>
+      <c r="N76" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="O76" s="13" t="s">
         <v>57</v>
       </c>
@@ -10498,38 +10498,38 @@
       <c r="Y76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z76" s="13" t="s">
-        <v>57</v>
+      <c r="Z76" s="13">
+        <v>3655355</v>
       </c>
       <c r="AA76" s="13">
-        <v>3655355</v>
+        <v>3729388</v>
       </c>
       <c r="AB76" s="13">
-        <v>3729388</v>
+        <v>4807213</v>
       </c>
       <c r="AC76" s="13">
-        <v>4807213</v>
+        <v>3815596</v>
       </c>
       <c r="AD76" s="13">
-        <v>3815596</v>
+        <v>4515304</v>
       </c>
       <c r="AE76" s="13">
-        <v>4515304</v>
+        <v>6347852</v>
       </c>
       <c r="AF76" s="13">
-        <v>6347852</v>
+        <v>6548395</v>
       </c>
       <c r="AG76" s="13">
-        <v>6548395</v>
+        <v>5368182</v>
       </c>
       <c r="AH76" s="13">
-        <v>5368182</v>
+        <v>5581282</v>
       </c>
       <c r="AI76" s="13">
-        <v>5581282</v>
-      </c>
-      <c r="AJ76" s="13">
         <v>5342739</v>
+      </c>
+      <c r="AJ76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK76" s="13" t="s">
         <v>57</v>
@@ -10687,62 +10687,62 @@
       <c r="AI77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ77" s="11" t="s">
-        <v>57</v>
+      <c r="AJ77" s="11">
+        <v>2179816</v>
       </c>
       <c r="AK77" s="11">
-        <v>2179816</v>
+        <v>2031620</v>
       </c>
       <c r="AL77" s="11">
-        <v>2031620</v>
+        <v>2409060</v>
       </c>
       <c r="AM77" s="11">
-        <v>2409060</v>
+        <v>2449732</v>
       </c>
       <c r="AN77" s="11">
         <v>2449732</v>
       </c>
       <c r="AO77" s="11">
-        <v>2449732</v>
+        <v>1347901</v>
       </c>
       <c r="AP77" s="11">
-        <v>1347901</v>
+        <v>3551156</v>
       </c>
       <c r="AQ77" s="11">
-        <v>3551156</v>
+        <v>11053151</v>
       </c>
       <c r="AR77" s="11">
-        <v>11053151</v>
+        <v>12388622</v>
       </c>
       <c r="AS77" s="11">
-        <v>12388622</v>
+        <v>5918985</v>
       </c>
       <c r="AT77" s="11">
-        <v>5918985</v>
+        <v>7715448</v>
       </c>
       <c r="AU77" s="11">
-        <v>7715448</v>
+        <v>7797090</v>
       </c>
       <c r="AV77" s="11">
-        <v>7797090</v>
+        <v>8228997</v>
       </c>
       <c r="AW77" s="11">
-        <v>8228997</v>
+        <v>7718281</v>
       </c>
       <c r="AX77" s="11">
-        <v>7718281</v>
+        <v>8181778</v>
       </c>
       <c r="AY77" s="11">
-        <v>8181778</v>
+        <v>8540434</v>
       </c>
       <c r="AZ77" s="11">
-        <v>8540434</v>
+        <v>9980572</v>
       </c>
       <c r="BA77" s="11">
-        <v>9980572</v>
+        <v>6320405</v>
       </c>
       <c r="BB77" s="11">
-        <v>6320405</v>
+        <v>6434086</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10846,62 +10846,62 @@
       <c r="AI78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ78" s="13" t="s">
-        <v>57</v>
+      <c r="AJ78" s="13">
+        <v>1990379</v>
       </c>
       <c r="AK78" s="13">
-        <v>1990379</v>
+        <v>1393162</v>
       </c>
       <c r="AL78" s="13">
-        <v>1393162</v>
+        <v>2396343</v>
       </c>
       <c r="AM78" s="13">
-        <v>2396343</v>
+        <v>2498117</v>
       </c>
       <c r="AN78" s="13">
         <v>2498117</v>
       </c>
       <c r="AO78" s="13">
-        <v>2498117</v>
+        <v>1377461</v>
       </c>
       <c r="AP78" s="13">
-        <v>1377461</v>
+        <v>4006676</v>
       </c>
       <c r="AQ78" s="13">
-        <v>4006676</v>
+        <v>5128830</v>
       </c>
       <c r="AR78" s="13">
-        <v>5128830</v>
+        <v>10113091</v>
       </c>
       <c r="AS78" s="13">
-        <v>10113091</v>
+        <v>4694801</v>
       </c>
       <c r="AT78" s="13">
-        <v>4694801</v>
+        <v>5647651</v>
       </c>
       <c r="AU78" s="13">
-        <v>5647651</v>
+        <v>5722602</v>
       </c>
       <c r="AV78" s="13">
-        <v>5722602</v>
+        <v>5890757</v>
       </c>
       <c r="AW78" s="13">
-        <v>5890757</v>
+        <v>5139229</v>
       </c>
       <c r="AX78" s="13">
-        <v>5139229</v>
+        <v>7760858</v>
       </c>
       <c r="AY78" s="13">
-        <v>7760858</v>
+        <v>6045209</v>
       </c>
       <c r="AZ78" s="13">
-        <v>6045209</v>
+        <v>8968674</v>
       </c>
       <c r="BA78" s="13">
-        <v>8968674</v>
+        <v>5572784</v>
       </c>
       <c r="BB78" s="13">
-        <v>5572784</v>
+        <v>4603905</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -11005,62 +11005,62 @@
       <c r="AI79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ79" s="11" t="s">
-        <v>57</v>
+      <c r="AJ79" s="11">
+        <v>551764</v>
       </c>
       <c r="AK79" s="11">
-        <v>551764</v>
+        <v>508487</v>
       </c>
       <c r="AL79" s="11">
-        <v>508487</v>
+        <v>596920</v>
       </c>
       <c r="AM79" s="11">
-        <v>596920</v>
+        <v>710666</v>
       </c>
       <c r="AN79" s="11">
         <v>710666</v>
       </c>
       <c r="AO79" s="11">
-        <v>710666</v>
+        <v>571759</v>
       </c>
       <c r="AP79" s="11">
-        <v>571759</v>
+        <v>649186</v>
       </c>
       <c r="AQ79" s="11">
-        <v>649186</v>
+        <v>2814568</v>
       </c>
       <c r="AR79" s="11">
-        <v>2814568</v>
+        <v>3960617</v>
       </c>
       <c r="AS79" s="11">
-        <v>3960617</v>
+        <v>1798975</v>
       </c>
       <c r="AT79" s="11">
-        <v>1798975</v>
+        <v>2829608</v>
       </c>
       <c r="AU79" s="11">
-        <v>2829608</v>
+        <v>2918854</v>
       </c>
       <c r="AV79" s="11">
-        <v>2918854</v>
+        <v>3267005</v>
       </c>
       <c r="AW79" s="11">
-        <v>3267005</v>
+        <v>3557633</v>
       </c>
       <c r="AX79" s="11">
-        <v>3557633</v>
+        <v>3189463</v>
       </c>
       <c r="AY79" s="11">
-        <v>3189463</v>
+        <v>3633774</v>
       </c>
       <c r="AZ79" s="11">
-        <v>3633774</v>
+        <v>4128142</v>
       </c>
       <c r="BA79" s="11">
-        <v>4128142</v>
+        <v>2709456</v>
       </c>
       <c r="BB79" s="11">
-        <v>2709456</v>
+        <v>4008186</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -11164,62 +11164,62 @@
       <c r="AI80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ80" s="13" t="s">
-        <v>57</v>
+      <c r="AJ80" s="13">
+        <v>144954</v>
       </c>
       <c r="AK80" s="13">
-        <v>144954</v>
+        <v>153336</v>
       </c>
       <c r="AL80" s="13">
-        <v>153336</v>
+        <v>290369</v>
       </c>
       <c r="AM80" s="13">
-        <v>290369</v>
+        <v>263632</v>
       </c>
       <c r="AN80" s="13">
         <v>263632</v>
       </c>
       <c r="AO80" s="13">
-        <v>263632</v>
+        <v>4720</v>
       </c>
       <c r="AP80" s="13">
-        <v>4720</v>
+        <v>-19</v>
       </c>
       <c r="AQ80" s="13">
-        <v>-19</v>
+        <v>143662</v>
       </c>
       <c r="AR80" s="13">
-        <v>143662</v>
+        <v>1550873</v>
       </c>
       <c r="AS80" s="13">
-        <v>1550873</v>
+        <v>1339792</v>
       </c>
       <c r="AT80" s="13">
-        <v>1339792</v>
+        <v>1522055</v>
       </c>
       <c r="AU80" s="13">
-        <v>1522055</v>
+        <v>598446</v>
       </c>
       <c r="AV80" s="13">
-        <v>598446</v>
+        <v>341009</v>
       </c>
       <c r="AW80" s="13">
-        <v>341009</v>
+        <v>1061413</v>
       </c>
       <c r="AX80" s="13">
-        <v>1061413</v>
+        <v>559177</v>
       </c>
       <c r="AY80" s="13">
-        <v>559177</v>
+        <v>862431</v>
       </c>
       <c r="AZ80" s="13">
-        <v>862431</v>
+        <v>1055544</v>
       </c>
       <c r="BA80" s="13">
-        <v>1055544</v>
+        <v>807248</v>
       </c>
       <c r="BB80" s="13">
-        <v>807248</v>
+        <v>971246</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11323,26 +11323,26 @@
       <c r="AI81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ81" s="11" t="s">
-        <v>57</v>
+      <c r="AJ81" s="11">
+        <v>55414</v>
       </c>
       <c r="AK81" s="11">
-        <v>55414</v>
+        <v>59392</v>
       </c>
       <c r="AL81" s="11">
-        <v>59392</v>
+        <v>18473</v>
       </c>
       <c r="AM81" s="11">
-        <v>18473</v>
+        <v>11498</v>
       </c>
       <c r="AN81" s="11">
         <v>11498</v>
       </c>
       <c r="AO81" s="11">
-        <v>11498</v>
-      </c>
-      <c r="AP81" s="11">
         <v>11257</v>
+      </c>
+      <c r="AP81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ81" s="11" t="s">
         <v>57</v>
@@ -11482,62 +11482,62 @@
       <c r="AI82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ82" s="13" t="s">
-        <v>57</v>
+      <c r="AJ82" s="13">
+        <v>32600</v>
       </c>
       <c r="AK82" s="13">
-        <v>32600</v>
+        <v>35923</v>
       </c>
       <c r="AL82" s="13">
-        <v>35923</v>
+        <v>29219</v>
       </c>
       <c r="AM82" s="13">
-        <v>29219</v>
+        <v>49267</v>
       </c>
       <c r="AN82" s="13">
         <v>49267</v>
       </c>
       <c r="AO82" s="13">
-        <v>49267</v>
+        <v>42731</v>
       </c>
       <c r="AP82" s="13">
-        <v>42731</v>
+        <v>72175</v>
       </c>
       <c r="AQ82" s="13">
-        <v>72175</v>
+        <v>204656</v>
       </c>
       <c r="AR82" s="13">
-        <v>204656</v>
+        <v>114877</v>
       </c>
       <c r="AS82" s="13">
-        <v>114877</v>
+        <v>77596</v>
       </c>
       <c r="AT82" s="13">
-        <v>77596</v>
+        <v>72221</v>
       </c>
       <c r="AU82" s="13">
-        <v>72221</v>
+        <v>55843</v>
       </c>
       <c r="AV82" s="13">
-        <v>55843</v>
+        <v>70928</v>
       </c>
       <c r="AW82" s="13">
-        <v>70928</v>
+        <v>93636</v>
       </c>
       <c r="AX82" s="13">
-        <v>93636</v>
+        <v>92778</v>
       </c>
       <c r="AY82" s="13">
-        <v>92778</v>
+        <v>102666</v>
       </c>
       <c r="AZ82" s="13">
-        <v>102666</v>
+        <v>160297</v>
       </c>
       <c r="BA82" s="13">
-        <v>160297</v>
+        <v>60994</v>
       </c>
       <c r="BB82" s="13">
-        <v>60994</v>
+        <v>70180</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11641,17 +11641,17 @@
       <c r="AI83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK83" s="11">
+      <c r="AJ83" s="11">
         <v>101644</v>
       </c>
-      <c r="AL83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM83" s="11">
+      <c r="AK83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL83" s="11">
         <v>73964</v>
+      </c>
+      <c r="AM83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN83" s="11" t="s">
         <v>57</v>
@@ -11818,35 +11818,35 @@
       <c r="AO84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP84" s="13" t="s">
-        <v>57</v>
+      <c r="AP84" s="13">
+        <v>6437</v>
       </c>
       <c r="AQ84" s="13">
-        <v>6437</v>
+        <v>0</v>
       </c>
       <c r="AR84" s="13">
-        <v>0</v>
+        <v>6247</v>
       </c>
       <c r="AS84" s="13">
-        <v>6247</v>
+        <v>7238</v>
       </c>
       <c r="AT84" s="13">
-        <v>7238</v>
+        <v>0</v>
       </c>
       <c r="AU84" s="13">
         <v>0</v>
       </c>
       <c r="AV84" s="13">
-        <v>0</v>
+        <v>16838</v>
       </c>
       <c r="AW84" s="13">
-        <v>16838</v>
-      </c>
-      <c r="AX84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY84" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AX84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY84" s="13">
+        <v>0</v>
       </c>
       <c r="AZ84" s="13">
         <v>0</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="BB84" s="13">
-        <v>0</v>
+        <v>21617</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11977,44 +11977,44 @@
       <c r="AO85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP85" s="11" t="s">
-        <v>57</v>
+      <c r="AP85" s="11">
+        <v>12590</v>
       </c>
       <c r="AQ85" s="11">
-        <v>12590</v>
+        <v>34081</v>
       </c>
       <c r="AR85" s="11">
-        <v>34081</v>
+        <v>77096</v>
       </c>
       <c r="AS85" s="11">
-        <v>77096</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="11">
-        <v>0</v>
+        <v>48216</v>
       </c>
       <c r="AU85" s="11">
-        <v>48216</v>
+        <v>51013</v>
       </c>
       <c r="AV85" s="11">
-        <v>51013</v>
+        <v>64692</v>
       </c>
       <c r="AW85" s="11">
-        <v>64692</v>
+        <v>7779</v>
       </c>
       <c r="AX85" s="11">
+        <v>17826</v>
+      </c>
+      <c r="AY85" s="11">
         <v>7779</v>
       </c>
-      <c r="AY85" s="11">
-        <v>17826</v>
-      </c>
       <c r="AZ85" s="11">
-        <v>7779</v>
+        <v>0</v>
       </c>
       <c r="BA85" s="11">
-        <v>0</v>
+        <v>3155</v>
       </c>
       <c r="BB85" s="11">
-        <v>3155</v>
+        <v>12961</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -12142,8 +12142,8 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>57</v>
+      <c r="AR86" s="13">
+        <v>0</v>
       </c>
       <c r="AS86" s="13">
         <v>0</v>
@@ -12157,8 +12157,8 @@
       <c r="AV86" s="13">
         <v>0</v>
       </c>
-      <c r="AW86" s="13">
-        <v>0</v>
+      <c r="AW86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX86" s="13" t="s">
         <v>57</v>
@@ -12166,8 +12166,8 @@
       <c r="AY86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ86" s="13" t="s">
-        <v>57</v>
+      <c r="AZ86" s="13">
+        <v>0</v>
       </c>
       <c r="BA86" s="13">
         <v>0</v>
@@ -12295,44 +12295,44 @@
       <c r="AO87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP87" s="11" t="s">
-        <v>57</v>
+      <c r="AP87" s="11">
+        <v>5416</v>
       </c>
       <c r="AQ87" s="11">
-        <v>5416</v>
+        <v>0</v>
       </c>
       <c r="AR87" s="11">
         <v>0</v>
       </c>
       <c r="AS87" s="11">
-        <v>0</v>
+        <v>327520</v>
       </c>
       <c r="AT87" s="11">
-        <v>327520</v>
+        <v>116927</v>
       </c>
       <c r="AU87" s="11">
-        <v>116927</v>
+        <v>75490</v>
       </c>
       <c r="AV87" s="11">
-        <v>75490</v>
+        <v>32484</v>
       </c>
       <c r="AW87" s="11">
-        <v>32484</v>
+        <v>140960</v>
       </c>
       <c r="AX87" s="11">
-        <v>140960</v>
+        <v>21515</v>
       </c>
       <c r="AY87" s="11">
-        <v>21515</v>
+        <v>53326</v>
       </c>
       <c r="AZ87" s="11">
-        <v>53326</v>
+        <v>21245</v>
       </c>
       <c r="BA87" s="11">
-        <v>21245</v>
+        <v>45994</v>
       </c>
       <c r="BB87" s="11">
-        <v>45994</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12454,8 +12454,8 @@
       <c r="AO88" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP88" s="13" t="s">
-        <v>57</v>
+      <c r="AP88" s="13">
+        <v>0</v>
       </c>
       <c r="AQ88" s="13">
         <v>0</v>
@@ -12478,11 +12478,11 @@
       <c r="AW88" s="13">
         <v>0</v>
       </c>
-      <c r="AX88" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY88" s="13" t="s">
-        <v>57</v>
+      <c r="AX88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY88" s="13">
+        <v>0</v>
       </c>
       <c r="AZ88" s="13">
         <v>0</v>
@@ -12616,8 +12616,8 @@
       <c r="AP89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ89" s="11" t="s">
-        <v>57</v>
+      <c r="AQ89" s="11">
+        <v>0</v>
       </c>
       <c r="AR89" s="11">
         <v>0</v>
@@ -12637,8 +12637,8 @@
       <c r="AW89" s="11">
         <v>0</v>
       </c>
-      <c r="AX89" s="11">
-        <v>0</v>
+      <c r="AX89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY89" s="11" t="s">
         <v>57</v>
@@ -12820,8 +12820,8 @@
       <c r="AL91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM91" s="11" t="s">
-        <v>57</v>
+      <c r="AM91" s="11">
+        <v>0</v>
       </c>
       <c r="AN91" s="11">
         <v>0</v>
@@ -12835,8 +12835,8 @@
       <c r="AQ91" s="11">
         <v>0</v>
       </c>
-      <c r="AR91" s="11">
-        <v>0</v>
+      <c r="AR91" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS91" s="11" t="s">
         <v>57</v>
@@ -12940,8 +12940,8 @@
       <c r="Y92" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Z92" s="15" t="s">
-        <v>57</v>
+      <c r="Z92" s="15">
+        <v>0</v>
       </c>
       <c r="AA92" s="15">
         <v>0</v>
@@ -13156,8 +13156,8 @@
       <c r="Y94" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z94" s="17" t="s">
-        <v>57</v>
+      <c r="Z94" s="17">
+        <v>0</v>
       </c>
       <c r="AA94" s="17">
         <v>0</v>
@@ -13372,92 +13372,92 @@
       <c r="Y96" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z96" s="11" t="s">
-        <v>57</v>
+      <c r="Z96" s="11">
+        <v>-94163</v>
       </c>
       <c r="AA96" s="11">
-        <v>-94163</v>
+        <v>-137794</v>
       </c>
       <c r="AB96" s="11">
-        <v>-137794</v>
+        <v>-160867</v>
       </c>
       <c r="AC96" s="11">
-        <v>-160867</v>
+        <v>-132957</v>
       </c>
       <c r="AD96" s="11">
-        <v>-132957</v>
+        <v>-166178</v>
       </c>
       <c r="AE96" s="11">
-        <v>-166178</v>
+        <v>-159975</v>
       </c>
       <c r="AF96" s="11">
-        <v>-159975</v>
+        <v>-199790</v>
       </c>
       <c r="AG96" s="11">
-        <v>-199790</v>
+        <v>-141327</v>
       </c>
       <c r="AH96" s="11">
-        <v>-141327</v>
+        <v>-226083</v>
       </c>
       <c r="AI96" s="11">
-        <v>-226083</v>
+        <v>-162469</v>
       </c>
       <c r="AJ96" s="11">
-        <v>-162469</v>
+        <v>-9851</v>
       </c>
       <c r="AK96" s="11">
-        <v>-9851</v>
+        <v>-174864</v>
       </c>
       <c r="AL96" s="11">
-        <v>-174864</v>
+        <v>-144552</v>
       </c>
       <c r="AM96" s="11">
-        <v>-144552</v>
+        <v>-194266</v>
       </c>
       <c r="AN96" s="11">
         <v>-194266</v>
       </c>
       <c r="AO96" s="11">
-        <v>-194266</v>
+        <v>-112332</v>
       </c>
       <c r="AP96" s="11">
-        <v>-112332</v>
+        <v>-223594</v>
       </c>
       <c r="AQ96" s="11">
-        <v>-223594</v>
+        <v>-412144</v>
       </c>
       <c r="AR96" s="11">
-        <v>-412144</v>
+        <v>-1150534</v>
       </c>
       <c r="AS96" s="11">
-        <v>-1150534</v>
+        <v>-1545296</v>
       </c>
       <c r="AT96" s="11">
-        <v>-1545296</v>
+        <v>-1258430</v>
       </c>
       <c r="AU96" s="11">
-        <v>-1258430</v>
+        <v>-1711873</v>
       </c>
       <c r="AV96" s="11">
-        <v>-1711873</v>
+        <v>-1862159</v>
       </c>
       <c r="AW96" s="11">
-        <v>-1862159</v>
+        <v>-1571755</v>
       </c>
       <c r="AX96" s="11">
-        <v>-1571755</v>
+        <v>-1437843</v>
       </c>
       <c r="AY96" s="11">
-        <v>-1437843</v>
+        <v>-1498634</v>
       </c>
       <c r="AZ96" s="11">
-        <v>-1498634</v>
+        <v>-2290215</v>
       </c>
       <c r="BA96" s="11">
-        <v>-2290215</v>
+        <v>-1089588</v>
       </c>
       <c r="BB96" s="11">
-        <v>-1089588</v>
+        <v>-1005324</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -13467,154 +13467,154 @@
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>1827912</v>
+        <v>2300370</v>
       </c>
       <c r="F97" s="15">
-        <v>2300370</v>
+        <v>1689861</v>
       </c>
       <c r="G97" s="15">
-        <v>1689861</v>
+        <v>2354969</v>
       </c>
       <c r="H97" s="15">
-        <v>2354969</v>
+        <v>3023125</v>
       </c>
       <c r="I97" s="15">
-        <v>3023125</v>
+        <v>2972844</v>
       </c>
       <c r="J97" s="15">
-        <v>2972844</v>
+        <v>2871834</v>
       </c>
       <c r="K97" s="15">
-        <v>2871834</v>
+        <v>2747533</v>
       </c>
       <c r="L97" s="15">
-        <v>2747533</v>
+        <v>2743082</v>
       </c>
       <c r="M97" s="15">
-        <v>2743082</v>
+        <v>3206019</v>
       </c>
       <c r="N97" s="15">
-        <v>3206019</v>
+        <v>2580800</v>
       </c>
       <c r="O97" s="15">
-        <v>2580800</v>
+        <v>3015717</v>
       </c>
       <c r="P97" s="15">
-        <v>3015717</v>
+        <v>3354919</v>
       </c>
       <c r="Q97" s="15">
-        <v>3354919</v>
+        <v>1650262</v>
       </c>
       <c r="R97" s="15">
-        <v>1650262</v>
+        <v>2463129</v>
       </c>
       <c r="S97" s="15">
-        <v>2463129</v>
+        <v>2076351</v>
       </c>
       <c r="T97" s="15">
-        <v>2076351</v>
+        <v>1211904</v>
       </c>
       <c r="U97" s="15">
-        <v>1211904</v>
+        <v>2310408</v>
       </c>
       <c r="V97" s="15">
-        <v>2310408</v>
+        <v>1897397</v>
       </c>
       <c r="W97" s="15">
-        <v>1897397</v>
+        <v>1496501</v>
       </c>
       <c r="X97" s="15">
-        <v>1496501</v>
+        <v>1469337</v>
       </c>
       <c r="Y97" s="15">
-        <v>1469337</v>
+        <v>2214383</v>
       </c>
       <c r="Z97" s="15">
-        <v>2214383</v>
+        <v>3561200</v>
       </c>
       <c r="AA97" s="15">
-        <v>3561200</v>
+        <v>3805343</v>
       </c>
       <c r="AB97" s="15">
-        <v>3805343</v>
+        <v>4674626</v>
       </c>
       <c r="AC97" s="15">
-        <v>4674626</v>
+        <v>3682639</v>
       </c>
       <c r="AD97" s="15">
-        <v>3682639</v>
+        <v>4464775</v>
       </c>
       <c r="AE97" s="15">
-        <v>4464775</v>
+        <v>6187877</v>
       </c>
       <c r="AF97" s="15">
-        <v>6187877</v>
+        <v>6348605</v>
       </c>
       <c r="AG97" s="15">
-        <v>6348605</v>
+        <v>5226855</v>
       </c>
       <c r="AH97" s="15">
-        <v>5226855</v>
+        <v>5355199</v>
       </c>
       <c r="AI97" s="15">
-        <v>5355199</v>
+        <v>5180270</v>
       </c>
       <c r="AJ97" s="15">
-        <v>5180270</v>
+        <v>5230832</v>
       </c>
       <c r="AK97" s="15">
-        <v>5230832</v>
+        <v>4151330</v>
       </c>
       <c r="AL97" s="15">
-        <v>4151330</v>
+        <v>5838909</v>
       </c>
       <c r="AM97" s="15">
-        <v>5838909</v>
+        <v>5930516</v>
       </c>
       <c r="AN97" s="15">
         <v>5930516</v>
       </c>
       <c r="AO97" s="15">
-        <v>5930516</v>
+        <v>3273371</v>
       </c>
       <c r="AP97" s="15">
-        <v>3273371</v>
+        <v>8214905</v>
       </c>
       <c r="AQ97" s="15">
-        <v>8214905</v>
+        <v>19403602</v>
       </c>
       <c r="AR97" s="15">
-        <v>19403602</v>
+        <v>27081032</v>
       </c>
       <c r="AS97" s="15">
-        <v>27081032</v>
+        <v>12705213</v>
       </c>
       <c r="AT97" s="15">
-        <v>12705213</v>
+        <v>16724605</v>
       </c>
       <c r="AU97" s="15">
-        <v>16724605</v>
+        <v>15522561</v>
       </c>
       <c r="AV97" s="15">
-        <v>15522561</v>
+        <v>16056802</v>
       </c>
       <c r="AW97" s="15">
-        <v>16056802</v>
+        <v>16144462</v>
       </c>
       <c r="AX97" s="15">
-        <v>16144462</v>
+        <v>18433759</v>
       </c>
       <c r="AY97" s="15">
-        <v>18433759</v>
+        <v>17952223</v>
       </c>
       <c r="AZ97" s="15">
-        <v>17952223</v>
+        <v>22236307</v>
       </c>
       <c r="BA97" s="15">
-        <v>22236307</v>
+        <v>14584797</v>
       </c>
       <c r="BB97" s="15">
-        <v>14584797</v>
+        <v>15374380</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -14152,62 +14152,62 @@
       <c r="AI104" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ104" s="11" t="s">
-        <v>57</v>
+      <c r="AJ104" s="11">
+        <v>52558379</v>
       </c>
       <c r="AK104" s="11">
-        <v>52558379</v>
+        <v>28841624</v>
       </c>
       <c r="AL104" s="11">
-        <v>28841624</v>
+        <v>38592652</v>
       </c>
       <c r="AM104" s="11">
-        <v>38592652</v>
+        <v>36339652</v>
       </c>
       <c r="AN104" s="11">
         <v>36339652</v>
       </c>
       <c r="AO104" s="11">
-        <v>36339652</v>
+        <v>25664948</v>
       </c>
       <c r="AP104" s="11">
-        <v>25664948</v>
+        <v>38491598</v>
       </c>
       <c r="AQ104" s="11">
-        <v>38491598</v>
+        <v>38580696</v>
       </c>
       <c r="AR104" s="11">
-        <v>38580696</v>
+        <v>22556551</v>
       </c>
       <c r="AS104" s="11">
-        <v>22556551</v>
+        <v>54662835</v>
       </c>
       <c r="AT104" s="11">
-        <v>54662835</v>
+        <v>33706652</v>
       </c>
       <c r="AU104" s="11">
-        <v>33706652</v>
+        <v>31515658</v>
       </c>
       <c r="AV104" s="11">
-        <v>31515658</v>
+        <v>102475410</v>
       </c>
       <c r="AW104" s="11">
-        <v>102475410</v>
+        <v>104384615</v>
       </c>
       <c r="AX104" s="11">
-        <v>104384615</v>
+        <v>59368227</v>
       </c>
       <c r="AY104" s="11">
-        <v>59368227</v>
+        <v>34680297</v>
       </c>
       <c r="AZ104" s="11">
-        <v>34680297</v>
+        <v>38936467</v>
       </c>
       <c r="BA104" s="11">
-        <v>38936467</v>
+        <v>81752648</v>
       </c>
       <c r="BB104" s="11">
-        <v>81752648</v>
+        <v>93145779</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.3">
@@ -14245,44 +14245,44 @@
       <c r="M105" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N105" s="13" t="s">
-        <v>57</v>
+      <c r="N105" s="13">
+        <v>72620857</v>
       </c>
       <c r="O105" s="13">
-        <v>72620857</v>
+        <v>77136203</v>
       </c>
       <c r="P105" s="13">
-        <v>77136203</v>
+        <v>78114019</v>
       </c>
       <c r="Q105" s="13">
-        <v>78114019</v>
+        <v>79103729</v>
       </c>
       <c r="R105" s="13">
-        <v>79103729</v>
+        <v>80605046</v>
       </c>
       <c r="S105" s="13">
-        <v>80605046</v>
+        <v>76637914</v>
       </c>
       <c r="T105" s="13">
-        <v>76637914</v>
+        <v>82040617</v>
       </c>
       <c r="U105" s="13">
-        <v>82040617</v>
+        <v>87744788</v>
       </c>
       <c r="V105" s="13">
-        <v>87744788</v>
+        <v>87611257</v>
       </c>
       <c r="W105" s="13">
-        <v>87611257</v>
+        <v>98363415</v>
       </c>
       <c r="X105" s="13">
-        <v>98363415</v>
+        <v>100591292</v>
       </c>
       <c r="Y105" s="13">
-        <v>100591292</v>
-      </c>
-      <c r="Z105" s="13">
         <v>98741773</v>
+      </c>
+      <c r="Z105" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA105" s="13" t="s">
         <v>57</v>
@@ -14443,21 +14443,21 @@
       <c r="Z106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA106" s="11" t="s">
-        <v>57</v>
+      <c r="AA106" s="11">
+        <v>29999860</v>
       </c>
       <c r="AB106" s="11">
-        <v>29999860</v>
-      </c>
-      <c r="AC106" s="11">
         <v>23237469</v>
       </c>
-      <c r="AD106" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE106" s="11">
+      <c r="AC106" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD106" s="11">
         <v>30322234</v>
       </c>
+      <c r="AE106" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AF106" s="11" t="s">
         <v>57</v>
       </c>
@@ -14473,12 +14473,12 @@
       <c r="AJ106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK106" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL106" s="11">
+      <c r="AK106" s="11">
         <v>30129167</v>
       </c>
+      <c r="AL106" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AM106" s="11" t="s">
         <v>57</v>
       </c>
@@ -14488,14 +14488,14 @@
       <c r="AO106" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP106" s="11" t="s">
-        <v>57</v>
+      <c r="AP106" s="11">
+        <v>26200000</v>
       </c>
       <c r="AQ106" s="11">
-        <v>26200000</v>
-      </c>
-      <c r="AR106" s="11">
         <v>70067328</v>
+      </c>
+      <c r="AR106" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS106" s="11" t="s">
         <v>57</v>
@@ -14537,35 +14537,35 @@
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13">
-        <v>66471944</v>
+        <v>68803314</v>
       </c>
       <c r="F107" s="13">
-        <v>68803314</v>
+        <v>71041367</v>
       </c>
       <c r="G107" s="13">
-        <v>71041367</v>
+        <v>74898830</v>
       </c>
       <c r="H107" s="13">
-        <v>74898830</v>
+        <v>77781280</v>
       </c>
       <c r="I107" s="13">
-        <v>77781280</v>
+        <v>76859381</v>
       </c>
       <c r="J107" s="13">
-        <v>76859381</v>
+        <v>75421751</v>
       </c>
       <c r="K107" s="13">
-        <v>75421751</v>
+        <v>73999650</v>
       </c>
       <c r="L107" s="13">
-        <v>73999650</v>
+        <v>72870972</v>
       </c>
       <c r="M107" s="13">
-        <v>72870972</v>
-      </c>
-      <c r="N107" s="13">
         <v>69455989</v>
       </c>
+      <c r="N107" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="O107" s="13" t="s">
         <v>57</v>
       </c>
@@ -14599,38 +14599,38 @@
       <c r="Y107" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z107" s="13" t="s">
-        <v>57</v>
+      <c r="Z107" s="13">
+        <v>102730454</v>
       </c>
       <c r="AA107" s="13">
-        <v>102730454</v>
+        <v>104149576</v>
       </c>
       <c r="AB107" s="13">
-        <v>104149576</v>
+        <v>118866846</v>
       </c>
       <c r="AC107" s="13">
-        <v>118866846</v>
+        <v>111900874</v>
       </c>
       <c r="AD107" s="13">
-        <v>111900874</v>
+        <v>120132603</v>
       </c>
       <c r="AE107" s="13">
-        <v>120132603</v>
+        <v>149343654</v>
       </c>
       <c r="AF107" s="13">
-        <v>149343654</v>
+        <v>153956717</v>
       </c>
       <c r="AG107" s="13">
-        <v>153956717</v>
+        <v>149394206</v>
       </c>
       <c r="AH107" s="13">
-        <v>149394206</v>
+        <v>146214031</v>
       </c>
       <c r="AI107" s="13">
-        <v>146214031</v>
-      </c>
-      <c r="AJ107" s="13">
         <v>149761430</v>
+      </c>
+      <c r="AJ107" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK107" s="13" t="s">
         <v>57</v>
@@ -14788,62 +14788,62 @@
       <c r="AI108" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ108" s="11" t="s">
-        <v>57</v>
+      <c r="AJ108" s="11">
+        <v>155102889</v>
       </c>
       <c r="AK108" s="11">
-        <v>155102889</v>
+        <v>153329811</v>
       </c>
       <c r="AL108" s="11">
-        <v>153329811</v>
+        <v>157393179</v>
       </c>
       <c r="AM108" s="11">
-        <v>157393179</v>
+        <v>157154991</v>
       </c>
       <c r="AN108" s="11">
         <v>157154991</v>
       </c>
       <c r="AO108" s="11">
-        <v>157154991</v>
+        <v>165264958</v>
       </c>
       <c r="AP108" s="11">
-        <v>165264958</v>
+        <v>445174376</v>
       </c>
       <c r="AQ108" s="11">
-        <v>445174376</v>
+        <v>747845129</v>
       </c>
       <c r="AR108" s="11">
-        <v>747845129</v>
+        <v>728356870</v>
       </c>
       <c r="AS108" s="11">
-        <v>728356870</v>
+        <v>686497912</v>
       </c>
       <c r="AT108" s="11">
-        <v>686497912</v>
+        <v>655796685</v>
       </c>
       <c r="AU108" s="11">
-        <v>655796685</v>
+        <v>657427487</v>
       </c>
       <c r="AV108" s="11">
-        <v>657427487</v>
+        <v>664057214</v>
       </c>
       <c r="AW108" s="11">
-        <v>664057214</v>
+        <v>659062505</v>
       </c>
       <c r="AX108" s="11">
-        <v>659062505</v>
+        <v>655486140</v>
       </c>
       <c r="AY108" s="11">
-        <v>655486140</v>
+        <v>662922766</v>
       </c>
       <c r="AZ108" s="11">
-        <v>662922766</v>
+        <v>659959796</v>
       </c>
       <c r="BA108" s="11">
-        <v>659959796</v>
+        <v>660163464</v>
       </c>
       <c r="BB108" s="11">
-        <v>660163464</v>
+        <v>658420589</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.3">
@@ -14947,62 +14947,62 @@
       <c r="AI109" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ109" s="13" t="s">
-        <v>57</v>
+      <c r="AJ109" s="13">
+        <v>168163146</v>
       </c>
       <c r="AK109" s="13">
-        <v>168163146</v>
+        <v>167709402</v>
       </c>
       <c r="AL109" s="13">
-        <v>167709402</v>
+        <v>173811779</v>
       </c>
       <c r="AM109" s="13">
-        <v>173811779</v>
+        <v>170345517</v>
       </c>
       <c r="AN109" s="13">
         <v>170345517</v>
       </c>
       <c r="AO109" s="13">
-        <v>170345517</v>
+        <v>182856896</v>
       </c>
       <c r="AP109" s="13">
-        <v>182856896</v>
+        <v>391468100</v>
       </c>
       <c r="AQ109" s="13">
-        <v>391468100</v>
+        <v>767444262</v>
       </c>
       <c r="AR109" s="13">
-        <v>767444262</v>
+        <v>741809653</v>
       </c>
       <c r="AS109" s="13">
-        <v>741809653</v>
+        <v>684772608</v>
       </c>
       <c r="AT109" s="13">
-        <v>684772608</v>
+        <v>664351370</v>
       </c>
       <c r="AU109" s="13">
-        <v>664351370</v>
+        <v>668216021</v>
       </c>
       <c r="AV109" s="13">
-        <v>668216021</v>
+        <v>669100068</v>
       </c>
       <c r="AW109" s="13">
-        <v>669100068</v>
+        <v>683135584</v>
       </c>
       <c r="AX109" s="13">
-        <v>683135584</v>
+        <v>681135510</v>
       </c>
       <c r="AY109" s="13">
-        <v>681135510</v>
+        <v>670795495</v>
       </c>
       <c r="AZ109" s="13">
-        <v>670795495</v>
+        <v>668655334</v>
       </c>
       <c r="BA109" s="13">
-        <v>668655334</v>
+        <v>666920057</v>
       </c>
       <c r="BB109" s="13">
-        <v>666920057</v>
+        <v>684595539</v>
       </c>
     </row>
     <row r="110" spans="2:54" x14ac:dyDescent="0.3">
@@ -15106,62 +15106,62 @@
       <c r="AI110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ110" s="11" t="s">
-        <v>57</v>
+      <c r="AJ110" s="11">
+        <v>123299218</v>
       </c>
       <c r="AK110" s="11">
-        <v>123299218</v>
+        <v>136031835</v>
       </c>
       <c r="AL110" s="11">
-        <v>136031835</v>
+        <v>133330355</v>
       </c>
       <c r="AM110" s="11">
-        <v>133330355</v>
+        <v>165965904</v>
       </c>
       <c r="AN110" s="11">
         <v>165965904</v>
       </c>
       <c r="AO110" s="11">
-        <v>165965904</v>
+        <v>157379301</v>
       </c>
       <c r="AP110" s="11">
-        <v>157379301</v>
+        <v>356108612</v>
       </c>
       <c r="AQ110" s="11">
-        <v>356108612</v>
+        <v>619675914</v>
       </c>
       <c r="AR110" s="11">
-        <v>619675914</v>
+        <v>586584271</v>
       </c>
       <c r="AS110" s="11">
-        <v>586584271</v>
+        <v>537328256</v>
       </c>
       <c r="AT110" s="11">
-        <v>537328256</v>
+        <v>503937311</v>
       </c>
       <c r="AU110" s="11">
-        <v>503937311</v>
+        <v>511989826</v>
       </c>
       <c r="AV110" s="11">
-        <v>511989826</v>
+        <v>516033012</v>
       </c>
       <c r="AW110" s="11">
-        <v>516033012</v>
+        <v>512922866</v>
       </c>
       <c r="AX110" s="11">
-        <v>512922866</v>
+        <v>509580284</v>
       </c>
       <c r="AY110" s="11">
-        <v>509580284</v>
+        <v>509288577</v>
       </c>
       <c r="AZ110" s="11">
-        <v>509288577</v>
+        <v>510214065</v>
       </c>
       <c r="BA110" s="11">
-        <v>510214065</v>
+        <v>505495522</v>
       </c>
       <c r="BB110" s="11">
-        <v>505495522</v>
+        <v>513080645</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -15265,62 +15265,62 @@
       <c r="AI111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ111" s="13" t="s">
-        <v>57</v>
+      <c r="AJ111" s="13">
+        <v>141695015</v>
       </c>
       <c r="AK111" s="13">
-        <v>141695015</v>
+        <v>142109361</v>
       </c>
       <c r="AL111" s="13">
-        <v>142109361</v>
+        <v>142968488</v>
       </c>
       <c r="AM111" s="13">
-        <v>142968488</v>
+        <v>144693743</v>
       </c>
       <c r="AN111" s="13">
         <v>144693743</v>
       </c>
       <c r="AO111" s="13">
-        <v>144693743</v>
-      </c>
-      <c r="AP111" s="13">
         <v>143030303</v>
       </c>
-      <c r="AQ111" s="13" t="s">
-        <v>57</v>
+      <c r="AP111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ111" s="13">
+        <v>662036866</v>
       </c>
       <c r="AR111" s="13">
-        <v>662036866</v>
+        <v>636125103</v>
       </c>
       <c r="AS111" s="13">
-        <v>636125103</v>
+        <v>582265102</v>
       </c>
       <c r="AT111" s="13">
-        <v>582265102</v>
+        <v>543009276</v>
       </c>
       <c r="AU111" s="13">
-        <v>543009276</v>
+        <v>544536852</v>
       </c>
       <c r="AV111" s="13">
-        <v>544536852</v>
+        <v>548245981</v>
       </c>
       <c r="AW111" s="13">
-        <v>548245981</v>
+        <v>542644683</v>
       </c>
       <c r="AX111" s="13">
-        <v>542644683</v>
+        <v>540790135</v>
       </c>
       <c r="AY111" s="13">
-        <v>540790135</v>
+        <v>544807960</v>
       </c>
       <c r="AZ111" s="13">
-        <v>544807960</v>
+        <v>546065184</v>
       </c>
       <c r="BA111" s="13">
-        <v>546065184</v>
+        <v>540688547</v>
       </c>
       <c r="BB111" s="13">
-        <v>540688547</v>
+        <v>549347285</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -15424,26 +15424,26 @@
       <c r="AI112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ112" s="11" t="s">
-        <v>57</v>
+      <c r="AJ112" s="11">
+        <v>100936248</v>
       </c>
       <c r="AK112" s="11">
-        <v>100936248</v>
+        <v>128000000</v>
       </c>
       <c r="AL112" s="11">
-        <v>128000000</v>
+        <v>100945355</v>
       </c>
       <c r="AM112" s="11">
-        <v>100945355</v>
+        <v>66848837</v>
       </c>
       <c r="AN112" s="11">
         <v>66848837</v>
       </c>
       <c r="AO112" s="11">
-        <v>66848837</v>
-      </c>
-      <c r="AP112" s="11">
         <v>274560976</v>
+      </c>
+      <c r="AP112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ112" s="11" t="s">
         <v>57</v>
@@ -15583,62 +15583,62 @@
       <c r="AI113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ113" s="13" t="s">
-        <v>57</v>
+      <c r="AJ113" s="13">
+        <v>350537634</v>
       </c>
       <c r="AK113" s="13">
-        <v>350537634</v>
+        <v>359230000</v>
       </c>
       <c r="AL113" s="13">
-        <v>359230000</v>
+        <v>352036145</v>
       </c>
       <c r="AM113" s="13">
-        <v>352036145</v>
+        <v>289805882</v>
       </c>
       <c r="AN113" s="13">
         <v>289805882</v>
       </c>
       <c r="AO113" s="13">
-        <v>289805882</v>
+        <v>298818182</v>
       </c>
       <c r="AP113" s="13">
-        <v>298818182</v>
+        <v>286408730</v>
       </c>
       <c r="AQ113" s="13">
-        <v>286408730</v>
+        <v>882137931</v>
       </c>
       <c r="AR113" s="13">
-        <v>882137931</v>
+        <v>911722222</v>
       </c>
       <c r="AS113" s="13">
-        <v>911722222</v>
+        <v>923761905</v>
       </c>
       <c r="AT113" s="13">
-        <v>923761905</v>
+        <v>830126437</v>
       </c>
       <c r="AU113" s="13">
-        <v>830126437</v>
+        <v>809318841</v>
       </c>
       <c r="AV113" s="13">
-        <v>809318841</v>
+        <v>788088889</v>
       </c>
       <c r="AW113" s="13">
-        <v>788088889</v>
+        <v>767508197</v>
       </c>
       <c r="AX113" s="13">
-        <v>767508197</v>
+        <v>773150000</v>
       </c>
       <c r="AY113" s="13">
-        <v>773150000</v>
+        <v>777772727</v>
       </c>
       <c r="AZ113" s="13">
-        <v>777772727</v>
+        <v>756117925</v>
       </c>
       <c r="BA113" s="13">
-        <v>756117925</v>
+        <v>792129870</v>
       </c>
       <c r="BB113" s="13">
-        <v>792129870</v>
+        <v>779777778</v>
       </c>
     </row>
     <row r="114" spans="2:54" x14ac:dyDescent="0.3">
@@ -15742,17 +15742,17 @@
       <c r="AI114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK114" s="11">
+      <c r="AJ114" s="11">
         <v>119160610</v>
       </c>
-      <c r="AL114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM114" s="11">
+      <c r="AK114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL114" s="11">
         <v>113267994</v>
+      </c>
+      <c r="AM114" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN114" s="11" t="s">
         <v>57</v>
@@ -15919,30 +15919,30 @@
       <c r="AO115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ115" s="13">
+      <c r="AP115" s="13">
         <v>1287400000</v>
       </c>
-      <c r="AR115" s="13" t="s">
-        <v>57</v>
+      <c r="AQ115" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR115" s="13">
+        <v>1249400000</v>
       </c>
       <c r="AS115" s="13">
-        <v>1249400000</v>
-      </c>
-      <c r="AT115" s="13">
         <v>1447600000</v>
       </c>
+      <c r="AT115" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW115" s="13">
+      <c r="AV115" s="13">
         <v>1683800000</v>
       </c>
+      <c r="AW115" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AX115" s="13" t="s">
         <v>57</v>
       </c>
@@ -15955,8 +15955,8 @@
       <c r="BA115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BB115" s="13" t="s">
-        <v>57</v>
+      <c r="BB115" s="13">
+        <v>2161700000</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -16078,44 +16078,44 @@
       <c r="AO116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP116" s="11" t="s">
-        <v>57</v>
+      <c r="AP116" s="11">
+        <v>224821429</v>
       </c>
       <c r="AQ116" s="11">
-        <v>224821429</v>
+        <v>608589286</v>
       </c>
       <c r="AR116" s="11">
-        <v>608589286</v>
-      </c>
-      <c r="AS116" s="11">
         <v>611873016</v>
       </c>
-      <c r="AT116" s="11" t="s">
-        <v>57</v>
+      <c r="AS116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT116" s="11">
+        <v>518451613</v>
       </c>
       <c r="AU116" s="11">
-        <v>518451613</v>
+        <v>520540816</v>
       </c>
       <c r="AV116" s="11">
-        <v>520540816</v>
+        <v>517536000</v>
       </c>
       <c r="AW116" s="11">
-        <v>517536000</v>
+        <v>518600000</v>
       </c>
       <c r="AX116" s="11">
+        <v>524294118</v>
+      </c>
+      <c r="AY116" s="11">
         <v>518600000</v>
       </c>
-      <c r="AY116" s="11">
-        <v>524294118</v>
-      </c>
-      <c r="AZ116" s="11">
-        <v>518600000</v>
-      </c>
-      <c r="BA116" s="11" t="s">
-        <v>57</v>
+      <c r="AZ116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA116" s="11">
+        <v>525833333</v>
       </c>
       <c r="BB116" s="11">
-        <v>525833333</v>
+        <v>518440000</v>
       </c>
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.3">
@@ -16396,44 +16396,44 @@
       <c r="AO118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ118" s="11">
+      <c r="AP118" s="11">
         <v>95017544</v>
       </c>
+      <c r="AQ118" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AR118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS118" s="11" t="s">
-        <v>57</v>
+      <c r="AS118" s="11">
+        <v>550453782</v>
       </c>
       <c r="AT118" s="11">
-        <v>550453782</v>
+        <v>501832618</v>
       </c>
       <c r="AU118" s="11">
-        <v>501832618</v>
+        <v>503266667</v>
       </c>
       <c r="AV118" s="11">
-        <v>503266667</v>
+        <v>499753846</v>
       </c>
       <c r="AW118" s="11">
-        <v>499753846</v>
+        <v>503428571</v>
       </c>
       <c r="AX118" s="11">
-        <v>503428571</v>
+        <v>500348837</v>
       </c>
       <c r="AY118" s="11">
-        <v>500348837</v>
+        <v>503075472</v>
       </c>
       <c r="AZ118" s="11">
-        <v>503075472</v>
+        <v>505833333</v>
       </c>
       <c r="BA118" s="11">
-        <v>505833333</v>
+        <v>133315942</v>
       </c>
       <c r="BB118" s="11">
-        <v>133315942</v>
+        <v>505511628</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16762,8 +16762,8 @@
       <c r="AL121" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM121" s="11" t="s">
-        <v>57</v>
+      <c r="AM121" s="11">
+        <v>0</v>
       </c>
       <c r="AN121" s="11">
         <v>0</v>
@@ -16777,8 +16777,8 @@
       <c r="AQ121" s="11">
         <v>0</v>
       </c>
-      <c r="AR121" s="11">
-        <v>0</v>
+      <c r="AR121" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS121" s="11" t="s">
         <v>57</v>
